--- a/VFC.xlsx
+++ b/VFC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFE661-C67B-41D9-91E9-EC9B0C633915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C11B68F-0027-4352-9384-CEE974BCA2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FD9221D3-9194-474F-AA6F-D3A3CA930557}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FD9221D3-9194-474F-AA6F-D3A3CA930557}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>VF Corporation</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>EV</t>
-  </si>
-  <si>
-    <t>FQ325</t>
   </si>
   <si>
     <t>Main</t>
@@ -161,6 +158,36 @@
   <si>
     <t>Asia Pacific</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Brands:</t>
+  </si>
+  <si>
+    <t>Vans, The North Face, Timberland, Dickies, Altra, Eastpak</t>
+  </si>
+  <si>
+    <t>Icebreaker, Jansport, Kipling, Napapijri, Smartwool</t>
+  </si>
+  <si>
+    <t>North Face Revenue</t>
+  </si>
+  <si>
+    <t>Vans Revenue</t>
+  </si>
+  <si>
+    <t>Timberland Revenue</t>
+  </si>
+  <si>
+    <t>Dickies Revenue</t>
+  </si>
+  <si>
+    <t>Other Revenue</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +216,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,6 +260,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406E3357-E065-4428-904F-B44A426A31A2}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>25.7</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>389.57336600000002</v>
+        <v>389.60500000000002</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -606,7 +643,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>10012.0355062</v>
+        <v>4776.5573000000004</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -620,7 +657,7 @@
         <v>1369.376</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +669,7 @@
         <v>4647.875</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -641,7 +678,27 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>13290.5345062</v>
+        <v>8055.0563000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -654,13 +711,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6FD6D1-E9FA-4061-9239-71EF4FDE7FAB}">
-  <dimension ref="A1:GY249"/>
+  <dimension ref="A1:GY255"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,94 +728,65 @@
   <sheetData>
     <row r="1" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:207" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:207" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>1156.502</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>1250.9369999999999</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>1606.1969999999999</v>
+        <v>1486.0060000000001</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1061.9000000000001</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
-        <v>1565.569</v>
+        <v>1506.722</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>995.2</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -788,20 +816,24 @@
     </row>
     <row r="5" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>17.495000000000001</v>
+        <v>883.00599999999997</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>849.6</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <v>17.405999999999999</v>
+        <v>894.24199999999996</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>812.3</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -831,20 +863,24 @@
     </row>
     <row r="6" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>1486.0060000000001</v>
+        <v>411.18200000000002</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>335.8</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <v>1506.722</v>
+        <v>432.94799999999998</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>336.2</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -874,20 +910,20 @@
     </row>
     <row r="7" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>883.00599999999997</v>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>814.3</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>894.24199999999996</v>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>834.5</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -917,20 +953,20 @@
     </row>
     <row r="8" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>411.18200000000002</v>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>631.20000000000005</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>432.94799999999998</v>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>492.6</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -959,21 +995,21 @@
       <c r="AJ8" s="2"/>
     </row>
     <row r="9" spans="1:207" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+      <c r="B9" t="s">
+        <v>46</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>2780.194</v>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>341.5</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>2833.9119999999998</v>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>376</v>
       </c>
-      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1000,194 +1036,23 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="2"/>
-      <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
-      <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
-      <c r="DN9" s="2"/>
-      <c r="DO9" s="2"/>
-      <c r="DP9" s="2"/>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2"/>
-      <c r="EA9" s="2"/>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
-      <c r="EP9" s="2"/>
-      <c r="EQ9" s="2"/>
-      <c r="ER9" s="2"/>
-      <c r="ES9" s="2"/>
-      <c r="ET9" s="2"/>
-      <c r="EU9" s="2"/>
-      <c r="EV9" s="2"/>
-      <c r="EW9" s="2"/>
-      <c r="EX9" s="2"/>
-      <c r="EY9" s="2"/>
-      <c r="EZ9" s="2"/>
-      <c r="FA9" s="2"/>
-      <c r="FB9" s="2"/>
-      <c r="FC9" s="2"/>
-      <c r="FD9" s="2"/>
-      <c r="FE9" s="2"/>
-      <c r="FF9" s="2"/>
-      <c r="FG9" s="2"/>
-      <c r="FH9" s="2"/>
-      <c r="FI9" s="2"/>
-      <c r="FJ9" s="2"/>
-      <c r="FK9" s="2"/>
-      <c r="FL9" s="2"/>
-      <c r="FM9" s="2"/>
-      <c r="FN9" s="2"/>
-      <c r="FO9" s="2"/>
-      <c r="FP9" s="2"/>
-      <c r="FQ9" s="2"/>
-      <c r="FR9" s="2"/>
-      <c r="FS9" s="2"/>
-      <c r="FT9" s="2"/>
-      <c r="FU9" s="2"/>
-      <c r="FV9" s="2"/>
-      <c r="FW9" s="2"/>
-      <c r="FX9" s="2"/>
-      <c r="FY9" s="2"/>
-      <c r="FZ9" s="2"/>
-      <c r="GA9" s="2"/>
-      <c r="GB9" s="2"/>
-      <c r="GC9" s="2"/>
-      <c r="GD9" s="2"/>
-      <c r="GE9" s="2"/>
-      <c r="GF9" s="2"/>
-      <c r="GG9" s="2"/>
-      <c r="GH9" s="2"/>
-      <c r="GI9" s="2"/>
-      <c r="GJ9" s="2"/>
-      <c r="GK9" s="2"/>
-      <c r="GL9" s="2"/>
-      <c r="GM9" s="2"/>
-      <c r="GN9" s="2"/>
-      <c r="GO9" s="2"/>
-      <c r="GP9" s="2"/>
-      <c r="GQ9" s="2"/>
-      <c r="GR9" s="2"/>
-      <c r="GS9" s="2"/>
-      <c r="GT9" s="2"/>
-      <c r="GU9" s="2"/>
-      <c r="GV9" s="2"/>
-      <c r="GW9" s="2"/>
-      <c r="GX9" s="2"/>
-      <c r="GY9" s="2"/>
     </row>
     <row r="10" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>1261.1880000000001</v>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>162.4</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>1238.7380000000001</v>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>139.30000000000001</v>
       </c>
-      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1214,213 +1079,22 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
-      <c r="CI10" s="2"/>
-      <c r="CJ10" s="2"/>
-      <c r="CK10" s="2"/>
-      <c r="CL10" s="2"/>
-      <c r="CM10" s="2"/>
-      <c r="CN10" s="2"/>
-      <c r="CO10" s="2"/>
-      <c r="CP10" s="2"/>
-      <c r="CQ10" s="2"/>
-      <c r="CR10" s="2"/>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CU10" s="2"/>
-      <c r="CV10" s="2"/>
-      <c r="CW10" s="2"/>
-      <c r="CX10" s="2"/>
-      <c r="CY10" s="2"/>
-      <c r="CZ10" s="2"/>
-      <c r="DA10" s="2"/>
-      <c r="DB10" s="2"/>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="2"/>
-      <c r="DE10" s="2"/>
-      <c r="DF10" s="2"/>
-      <c r="DG10" s="2"/>
-      <c r="DH10" s="2"/>
-      <c r="DI10" s="2"/>
-      <c r="DJ10" s="2"/>
-      <c r="DK10" s="2"/>
-      <c r="DL10" s="2"/>
-      <c r="DM10" s="2"/>
-      <c r="DN10" s="2"/>
-      <c r="DO10" s="2"/>
-      <c r="DP10" s="2"/>
-      <c r="DQ10" s="2"/>
-      <c r="DR10" s="2"/>
-      <c r="DS10" s="2"/>
-      <c r="DT10" s="2"/>
-      <c r="DU10" s="2"/>
-      <c r="DV10" s="2"/>
-      <c r="DW10" s="2"/>
-      <c r="DX10" s="2"/>
-      <c r="DY10" s="2"/>
-      <c r="DZ10" s="2"/>
-      <c r="EA10" s="2"/>
-      <c r="EB10" s="2"/>
-      <c r="EC10" s="2"/>
-      <c r="ED10" s="2"/>
-      <c r="EE10" s="2"/>
-      <c r="EF10" s="2"/>
-      <c r="EG10" s="2"/>
-      <c r="EH10" s="2"/>
-      <c r="EI10" s="2"/>
-      <c r="EJ10" s="2"/>
-      <c r="EK10" s="2"/>
-      <c r="EL10" s="2"/>
-      <c r="EM10" s="2"/>
-      <c r="EN10" s="2"/>
-      <c r="EO10" s="2"/>
-      <c r="EP10" s="2"/>
-      <c r="EQ10" s="2"/>
-      <c r="ER10" s="2"/>
-      <c r="ES10" s="2"/>
-      <c r="ET10" s="2"/>
-      <c r="EU10" s="2"/>
-      <c r="EV10" s="2"/>
-      <c r="EW10" s="2"/>
-      <c r="EX10" s="2"/>
-      <c r="EY10" s="2"/>
-      <c r="EZ10" s="2"/>
-      <c r="FA10" s="2"/>
-      <c r="FB10" s="2"/>
-      <c r="FC10" s="2"/>
-      <c r="FD10" s="2"/>
-      <c r="FE10" s="2"/>
-      <c r="FF10" s="2"/>
-      <c r="FG10" s="2"/>
-      <c r="FH10" s="2"/>
-      <c r="FI10" s="2"/>
-      <c r="FJ10" s="2"/>
-      <c r="FK10" s="2"/>
-      <c r="FL10" s="2"/>
-      <c r="FM10" s="2"/>
-      <c r="FN10" s="2"/>
-      <c r="FO10" s="2"/>
-      <c r="FP10" s="2"/>
-      <c r="FQ10" s="2"/>
-      <c r="FR10" s="2"/>
-      <c r="FS10" s="2"/>
-      <c r="FT10" s="2"/>
-      <c r="FU10" s="2"/>
-      <c r="FV10" s="2"/>
-      <c r="FW10" s="2"/>
-      <c r="FX10" s="2"/>
-      <c r="FY10" s="2"/>
-      <c r="FZ10" s="2"/>
-      <c r="GA10" s="2"/>
-      <c r="GB10" s="2"/>
-      <c r="GC10" s="2"/>
-      <c r="GD10" s="2"/>
-      <c r="GE10" s="2"/>
-      <c r="GF10" s="2"/>
-      <c r="GG10" s="2"/>
-      <c r="GH10" s="2"/>
-      <c r="GI10" s="2"/>
-      <c r="GJ10" s="2"/>
-      <c r="GK10" s="2"/>
-      <c r="GL10" s="2"/>
-      <c r="GM10" s="2"/>
-      <c r="GN10" s="2"/>
-      <c r="GO10" s="2"/>
-      <c r="GP10" s="2"/>
-      <c r="GQ10" s="2"/>
-      <c r="GR10" s="2"/>
-      <c r="GS10" s="2"/>
-      <c r="GT10" s="2"/>
-      <c r="GU10" s="2"/>
-      <c r="GV10" s="2"/>
-      <c r="GW10" s="2"/>
-      <c r="GX10" s="2"/>
-      <c r="GY10" s="2"/>
     </row>
     <row r="11" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:H11" si="0">+C9-C10</f>
-        <v>0</v>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>297.89999999999998</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1519.0059999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f>+I9-I10</f>
-        <v>1595.1739999999998</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <f t="shared" ref="J11" si="1">+J9-J10</f>
-        <v>0</v>
+        <v>301.5</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1448,194 +1122,27 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2"/>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
-      <c r="BW11" s="2"/>
-      <c r="BX11" s="2"/>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
-      <c r="CI11" s="2"/>
-      <c r="CJ11" s="2"/>
-      <c r="CK11" s="2"/>
-      <c r="CL11" s="2"/>
-      <c r="CM11" s="2"/>
-      <c r="CN11" s="2"/>
-      <c r="CO11" s="2"/>
-      <c r="CP11" s="2"/>
-      <c r="CQ11" s="2"/>
-      <c r="CR11" s="2"/>
-      <c r="CS11" s="2"/>
-      <c r="CT11" s="2"/>
-      <c r="CU11" s="2"/>
-      <c r="CV11" s="2"/>
-      <c r="CW11" s="2"/>
-      <c r="CX11" s="2"/>
-      <c r="CY11" s="2"/>
-      <c r="CZ11" s="2"/>
-      <c r="DA11" s="2"/>
-      <c r="DB11" s="2"/>
-      <c r="DC11" s="2"/>
-      <c r="DD11" s="2"/>
-      <c r="DE11" s="2"/>
-      <c r="DF11" s="2"/>
-      <c r="DG11" s="2"/>
-      <c r="DH11" s="2"/>
-      <c r="DI11" s="2"/>
-      <c r="DJ11" s="2"/>
-      <c r="DK11" s="2"/>
-      <c r="DL11" s="2"/>
-      <c r="DM11" s="2"/>
-      <c r="DN11" s="2"/>
-      <c r="DO11" s="2"/>
-      <c r="DP11" s="2"/>
-      <c r="DQ11" s="2"/>
-      <c r="DR11" s="2"/>
-      <c r="DS11" s="2"/>
-      <c r="DT11" s="2"/>
-      <c r="DU11" s="2"/>
-      <c r="DV11" s="2"/>
-      <c r="DW11" s="2"/>
-      <c r="DX11" s="2"/>
-      <c r="DY11" s="2"/>
-      <c r="DZ11" s="2"/>
-      <c r="EA11" s="2"/>
-      <c r="EB11" s="2"/>
-      <c r="EC11" s="2"/>
-      <c r="ED11" s="2"/>
-      <c r="EE11" s="2"/>
-      <c r="EF11" s="2"/>
-      <c r="EG11" s="2"/>
-      <c r="EH11" s="2"/>
-      <c r="EI11" s="2"/>
-      <c r="EJ11" s="2"/>
-      <c r="EK11" s="2"/>
-      <c r="EL11" s="2"/>
-      <c r="EM11" s="2"/>
-      <c r="EN11" s="2"/>
-      <c r="EO11" s="2"/>
-      <c r="EP11" s="2"/>
-      <c r="EQ11" s="2"/>
-      <c r="ER11" s="2"/>
-      <c r="ES11" s="2"/>
-      <c r="ET11" s="2"/>
-      <c r="EU11" s="2"/>
-      <c r="EV11" s="2"/>
-      <c r="EW11" s="2"/>
-      <c r="EX11" s="2"/>
-      <c r="EY11" s="2"/>
-      <c r="EZ11" s="2"/>
-      <c r="FA11" s="2"/>
-      <c r="FB11" s="2"/>
-      <c r="FC11" s="2"/>
-      <c r="FD11" s="2"/>
-      <c r="FE11" s="2"/>
-      <c r="FF11" s="2"/>
-      <c r="FG11" s="2"/>
-      <c r="FH11" s="2"/>
-      <c r="FI11" s="2"/>
-      <c r="FJ11" s="2"/>
-      <c r="FK11" s="2"/>
-      <c r="FL11" s="2"/>
-      <c r="FM11" s="2"/>
-      <c r="FN11" s="2"/>
-      <c r="FO11" s="2"/>
-      <c r="FP11" s="2"/>
-      <c r="FQ11" s="2"/>
-      <c r="FR11" s="2"/>
-      <c r="FS11" s="2"/>
-      <c r="FT11" s="2"/>
-      <c r="FU11" s="2"/>
-      <c r="FV11" s="2"/>
-      <c r="FW11" s="2"/>
-      <c r="FX11" s="2"/>
-      <c r="FY11" s="2"/>
-      <c r="FZ11" s="2"/>
-      <c r="GA11" s="2"/>
-      <c r="GB11" s="2"/>
-      <c r="GC11" s="2"/>
-      <c r="GD11" s="2"/>
-      <c r="GE11" s="2"/>
-      <c r="GF11" s="2"/>
-      <c r="GG11" s="2"/>
-      <c r="GH11" s="2"/>
-      <c r="GI11" s="2"/>
-      <c r="GJ11" s="2"/>
-      <c r="GK11" s="2"/>
-      <c r="GL11" s="2"/>
-      <c r="GM11" s="2"/>
-      <c r="GN11" s="2"/>
-      <c r="GO11" s="2"/>
-      <c r="GP11" s="2"/>
-      <c r="GQ11" s="2"/>
-      <c r="GR11" s="2"/>
-      <c r="GS11" s="2"/>
-      <c r="GT11" s="2"/>
-      <c r="GU11" s="2"/>
-      <c r="GV11" s="2"/>
-      <c r="GW11" s="2"/>
-      <c r="GX11" s="2"/>
-      <c r="GY11" s="2"/>
     </row>
     <row r="12" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>1353.152</v>
+        <v>1156.502</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>967.6</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
-        <v>1318.3969999999999</v>
+        <v>1250.9369999999999</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>920.8</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1662,194 +1169,27 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="2"/>
-      <c r="BJ12" s="2"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="2"/>
-      <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
-      <c r="BR12" s="2"/>
-      <c r="BS12" s="2"/>
-      <c r="BT12" s="2"/>
-      <c r="BU12" s="2"/>
-      <c r="BV12" s="2"/>
-      <c r="BW12" s="2"/>
-      <c r="BX12" s="2"/>
-      <c r="BY12" s="2"/>
-      <c r="BZ12" s="2"/>
-      <c r="CA12" s="2"/>
-      <c r="CB12" s="2"/>
-      <c r="CC12" s="2"/>
-      <c r="CD12" s="2"/>
-      <c r="CE12" s="2"/>
-      <c r="CF12" s="2"/>
-      <c r="CG12" s="2"/>
-      <c r="CH12" s="2"/>
-      <c r="CI12" s="2"/>
-      <c r="CJ12" s="2"/>
-      <c r="CK12" s="2"/>
-      <c r="CL12" s="2"/>
-      <c r="CM12" s="2"/>
-      <c r="CN12" s="2"/>
-      <c r="CO12" s="2"/>
-      <c r="CP12" s="2"/>
-      <c r="CQ12" s="2"/>
-      <c r="CR12" s="2"/>
-      <c r="CS12" s="2"/>
-      <c r="CT12" s="2"/>
-      <c r="CU12" s="2"/>
-      <c r="CV12" s="2"/>
-      <c r="CW12" s="2"/>
-      <c r="CX12" s="2"/>
-      <c r="CY12" s="2"/>
-      <c r="CZ12" s="2"/>
-      <c r="DA12" s="2"/>
-      <c r="DB12" s="2"/>
-      <c r="DC12" s="2"/>
-      <c r="DD12" s="2"/>
-      <c r="DE12" s="2"/>
-      <c r="DF12" s="2"/>
-      <c r="DG12" s="2"/>
-      <c r="DH12" s="2"/>
-      <c r="DI12" s="2"/>
-      <c r="DJ12" s="2"/>
-      <c r="DK12" s="2"/>
-      <c r="DL12" s="2"/>
-      <c r="DM12" s="2"/>
-      <c r="DN12" s="2"/>
-      <c r="DO12" s="2"/>
-      <c r="DP12" s="2"/>
-      <c r="DQ12" s="2"/>
-      <c r="DR12" s="2"/>
-      <c r="DS12" s="2"/>
-      <c r="DT12" s="2"/>
-      <c r="DU12" s="2"/>
-      <c r="DV12" s="2"/>
-      <c r="DW12" s="2"/>
-      <c r="DX12" s="2"/>
-      <c r="DY12" s="2"/>
-      <c r="DZ12" s="2"/>
-      <c r="EA12" s="2"/>
-      <c r="EB12" s="2"/>
-      <c r="EC12" s="2"/>
-      <c r="ED12" s="2"/>
-      <c r="EE12" s="2"/>
-      <c r="EF12" s="2"/>
-      <c r="EG12" s="2"/>
-      <c r="EH12" s="2"/>
-      <c r="EI12" s="2"/>
-      <c r="EJ12" s="2"/>
-      <c r="EK12" s="2"/>
-      <c r="EL12" s="2"/>
-      <c r="EM12" s="2"/>
-      <c r="EN12" s="2"/>
-      <c r="EO12" s="2"/>
-      <c r="EP12" s="2"/>
-      <c r="EQ12" s="2"/>
-      <c r="ER12" s="2"/>
-      <c r="ES12" s="2"/>
-      <c r="ET12" s="2"/>
-      <c r="EU12" s="2"/>
-      <c r="EV12" s="2"/>
-      <c r="EW12" s="2"/>
-      <c r="EX12" s="2"/>
-      <c r="EY12" s="2"/>
-      <c r="EZ12" s="2"/>
-      <c r="FA12" s="2"/>
-      <c r="FB12" s="2"/>
-      <c r="FC12" s="2"/>
-      <c r="FD12" s="2"/>
-      <c r="FE12" s="2"/>
-      <c r="FF12" s="2"/>
-      <c r="FG12" s="2"/>
-      <c r="FH12" s="2"/>
-      <c r="FI12" s="2"/>
-      <c r="FJ12" s="2"/>
-      <c r="FK12" s="2"/>
-      <c r="FL12" s="2"/>
-      <c r="FM12" s="2"/>
-      <c r="FN12" s="2"/>
-      <c r="FO12" s="2"/>
-      <c r="FP12" s="2"/>
-      <c r="FQ12" s="2"/>
-      <c r="FR12" s="2"/>
-      <c r="FS12" s="2"/>
-      <c r="FT12" s="2"/>
-      <c r="FU12" s="2"/>
-      <c r="FV12" s="2"/>
-      <c r="FW12" s="2"/>
-      <c r="FX12" s="2"/>
-      <c r="FY12" s="2"/>
-      <c r="FZ12" s="2"/>
-      <c r="GA12" s="2"/>
-      <c r="GB12" s="2"/>
-      <c r="GC12" s="2"/>
-      <c r="GD12" s="2"/>
-      <c r="GE12" s="2"/>
-      <c r="GF12" s="2"/>
-      <c r="GG12" s="2"/>
-      <c r="GH12" s="2"/>
-      <c r="GI12" s="2"/>
-      <c r="GJ12" s="2"/>
-      <c r="GK12" s="2"/>
-      <c r="GL12" s="2"/>
-      <c r="GM12" s="2"/>
-      <c r="GN12" s="2"/>
-      <c r="GO12" s="2"/>
-      <c r="GP12" s="2"/>
-      <c r="GQ12" s="2"/>
-      <c r="GR12" s="2"/>
-      <c r="GS12" s="2"/>
-      <c r="GT12" s="2"/>
-      <c r="GU12" s="2"/>
-      <c r="GV12" s="2"/>
-      <c r="GW12" s="2"/>
-      <c r="GX12" s="2"/>
-      <c r="GY12" s="2"/>
     </row>
     <row r="13" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>257.096</v>
+        <v>1606.1969999999999</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1279.7</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
-        <v>51</v>
+        <v>1565.569</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>1223</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1876,212 +1216,25 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2"/>
-      <c r="BT13" s="2"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
-      <c r="BW13" s="2"/>
-      <c r="BX13" s="2"/>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2"/>
-      <c r="CD13" s="2"/>
-      <c r="CE13" s="2"/>
-      <c r="CF13" s="2"/>
-      <c r="CG13" s="2"/>
-      <c r="CH13" s="2"/>
-      <c r="CI13" s="2"/>
-      <c r="CJ13" s="2"/>
-      <c r="CK13" s="2"/>
-      <c r="CL13" s="2"/>
-      <c r="CM13" s="2"/>
-      <c r="CN13" s="2"/>
-      <c r="CO13" s="2"/>
-      <c r="CP13" s="2"/>
-      <c r="CQ13" s="2"/>
-      <c r="CR13" s="2"/>
-      <c r="CS13" s="2"/>
-      <c r="CT13" s="2"/>
-      <c r="CU13" s="2"/>
-      <c r="CV13" s="2"/>
-      <c r="CW13" s="2"/>
-      <c r="CX13" s="2"/>
-      <c r="CY13" s="2"/>
-      <c r="CZ13" s="2"/>
-      <c r="DA13" s="2"/>
-      <c r="DB13" s="2"/>
-      <c r="DC13" s="2"/>
-      <c r="DD13" s="2"/>
-      <c r="DE13" s="2"/>
-      <c r="DF13" s="2"/>
-      <c r="DG13" s="2"/>
-      <c r="DH13" s="2"/>
-      <c r="DI13" s="2"/>
-      <c r="DJ13" s="2"/>
-      <c r="DK13" s="2"/>
-      <c r="DL13" s="2"/>
-      <c r="DM13" s="2"/>
-      <c r="DN13" s="2"/>
-      <c r="DO13" s="2"/>
-      <c r="DP13" s="2"/>
-      <c r="DQ13" s="2"/>
-      <c r="DR13" s="2"/>
-      <c r="DS13" s="2"/>
-      <c r="DT13" s="2"/>
-      <c r="DU13" s="2"/>
-      <c r="DV13" s="2"/>
-      <c r="DW13" s="2"/>
-      <c r="DX13" s="2"/>
-      <c r="DY13" s="2"/>
-      <c r="DZ13" s="2"/>
-      <c r="EA13" s="2"/>
-      <c r="EB13" s="2"/>
-      <c r="EC13" s="2"/>
-      <c r="ED13" s="2"/>
-      <c r="EE13" s="2"/>
-      <c r="EF13" s="2"/>
-      <c r="EG13" s="2"/>
-      <c r="EH13" s="2"/>
-      <c r="EI13" s="2"/>
-      <c r="EJ13" s="2"/>
-      <c r="EK13" s="2"/>
-      <c r="EL13" s="2"/>
-      <c r="EM13" s="2"/>
-      <c r="EN13" s="2"/>
-      <c r="EO13" s="2"/>
-      <c r="EP13" s="2"/>
-      <c r="EQ13" s="2"/>
-      <c r="ER13" s="2"/>
-      <c r="ES13" s="2"/>
-      <c r="ET13" s="2"/>
-      <c r="EU13" s="2"/>
-      <c r="EV13" s="2"/>
-      <c r="EW13" s="2"/>
-      <c r="EX13" s="2"/>
-      <c r="EY13" s="2"/>
-      <c r="EZ13" s="2"/>
-      <c r="FA13" s="2"/>
-      <c r="FB13" s="2"/>
-      <c r="FC13" s="2"/>
-      <c r="FD13" s="2"/>
-      <c r="FE13" s="2"/>
-      <c r="FF13" s="2"/>
-      <c r="FG13" s="2"/>
-      <c r="FH13" s="2"/>
-      <c r="FI13" s="2"/>
-      <c r="FJ13" s="2"/>
-      <c r="FK13" s="2"/>
-      <c r="FL13" s="2"/>
-      <c r="FM13" s="2"/>
-      <c r="FN13" s="2"/>
-      <c r="FO13" s="2"/>
-      <c r="FP13" s="2"/>
-      <c r="FQ13" s="2"/>
-      <c r="FR13" s="2"/>
-      <c r="FS13" s="2"/>
-      <c r="FT13" s="2"/>
-      <c r="FU13" s="2"/>
-      <c r="FV13" s="2"/>
-      <c r="FW13" s="2"/>
-      <c r="FX13" s="2"/>
-      <c r="FY13" s="2"/>
-      <c r="FZ13" s="2"/>
-      <c r="GA13" s="2"/>
-      <c r="GB13" s="2"/>
-      <c r="GC13" s="2"/>
-      <c r="GD13" s="2"/>
-      <c r="GE13" s="2"/>
-      <c r="GF13" s="2"/>
-      <c r="GG13" s="2"/>
-      <c r="GH13" s="2"/>
-      <c r="GI13" s="2"/>
-      <c r="GJ13" s="2"/>
-      <c r="GK13" s="2"/>
-      <c r="GL13" s="2"/>
-      <c r="GM13" s="2"/>
-      <c r="GN13" s="2"/>
-      <c r="GO13" s="2"/>
-      <c r="GP13" s="2"/>
-      <c r="GQ13" s="2"/>
-      <c r="GR13" s="2"/>
-      <c r="GS13" s="2"/>
-      <c r="GT13" s="2"/>
-      <c r="GU13" s="2"/>
-      <c r="GV13" s="2"/>
-      <c r="GW13" s="2"/>
-      <c r="GX13" s="2"/>
-      <c r="GY13" s="2"/>
     </row>
     <row r="14" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ref="C14" si="2">+C11-C12-C13</f>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>17.495000000000001</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14" si="3">+D11-D12-D13</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:H14" si="4">+E11-E12-E13</f>
-        <v>-91.242000000000189</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2">
-        <f>+I11-I12-I13</f>
-        <v>225.77699999999982</v>
+        <v>17.405999999999999</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" ref="J14" si="5">+J11-J12-J13</f>
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
@@ -2110,194 +1263,27 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
-      <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
-      <c r="CH14" s="2"/>
-      <c r="CI14" s="2"/>
-      <c r="CJ14" s="2"/>
-      <c r="CK14" s="2"/>
-      <c r="CL14" s="2"/>
-      <c r="CM14" s="2"/>
-      <c r="CN14" s="2"/>
-      <c r="CO14" s="2"/>
-      <c r="CP14" s="2"/>
-      <c r="CQ14" s="2"/>
-      <c r="CR14" s="2"/>
-      <c r="CS14" s="2"/>
-      <c r="CT14" s="2"/>
-      <c r="CU14" s="2"/>
-      <c r="CV14" s="2"/>
-      <c r="CW14" s="2"/>
-      <c r="CX14" s="2"/>
-      <c r="CY14" s="2"/>
-      <c r="CZ14" s="2"/>
-      <c r="DA14" s="2"/>
-      <c r="DB14" s="2"/>
-      <c r="DC14" s="2"/>
-      <c r="DD14" s="2"/>
-      <c r="DE14" s="2"/>
-      <c r="DF14" s="2"/>
-      <c r="DG14" s="2"/>
-      <c r="DH14" s="2"/>
-      <c r="DI14" s="2"/>
-      <c r="DJ14" s="2"/>
-      <c r="DK14" s="2"/>
-      <c r="DL14" s="2"/>
-      <c r="DM14" s="2"/>
-      <c r="DN14" s="2"/>
-      <c r="DO14" s="2"/>
-      <c r="DP14" s="2"/>
-      <c r="DQ14" s="2"/>
-      <c r="DR14" s="2"/>
-      <c r="DS14" s="2"/>
-      <c r="DT14" s="2"/>
-      <c r="DU14" s="2"/>
-      <c r="DV14" s="2"/>
-      <c r="DW14" s="2"/>
-      <c r="DX14" s="2"/>
-      <c r="DY14" s="2"/>
-      <c r="DZ14" s="2"/>
-      <c r="EA14" s="2"/>
-      <c r="EB14" s="2"/>
-      <c r="EC14" s="2"/>
-      <c r="ED14" s="2"/>
-      <c r="EE14" s="2"/>
-      <c r="EF14" s="2"/>
-      <c r="EG14" s="2"/>
-      <c r="EH14" s="2"/>
-      <c r="EI14" s="2"/>
-      <c r="EJ14" s="2"/>
-      <c r="EK14" s="2"/>
-      <c r="EL14" s="2"/>
-      <c r="EM14" s="2"/>
-      <c r="EN14" s="2"/>
-      <c r="EO14" s="2"/>
-      <c r="EP14" s="2"/>
-      <c r="EQ14" s="2"/>
-      <c r="ER14" s="2"/>
-      <c r="ES14" s="2"/>
-      <c r="ET14" s="2"/>
-      <c r="EU14" s="2"/>
-      <c r="EV14" s="2"/>
-      <c r="EW14" s="2"/>
-      <c r="EX14" s="2"/>
-      <c r="EY14" s="2"/>
-      <c r="EZ14" s="2"/>
-      <c r="FA14" s="2"/>
-      <c r="FB14" s="2"/>
-      <c r="FC14" s="2"/>
-      <c r="FD14" s="2"/>
-      <c r="FE14" s="2"/>
-      <c r="FF14" s="2"/>
-      <c r="FG14" s="2"/>
-      <c r="FH14" s="2"/>
-      <c r="FI14" s="2"/>
-      <c r="FJ14" s="2"/>
-      <c r="FK14" s="2"/>
-      <c r="FL14" s="2"/>
-      <c r="FM14" s="2"/>
-      <c r="FN14" s="2"/>
-      <c r="FO14" s="2"/>
-      <c r="FP14" s="2"/>
-      <c r="FQ14" s="2"/>
-      <c r="FR14" s="2"/>
-      <c r="FS14" s="2"/>
-      <c r="FT14" s="2"/>
-      <c r="FU14" s="2"/>
-      <c r="FV14" s="2"/>
-      <c r="FW14" s="2"/>
-      <c r="FX14" s="2"/>
-      <c r="FY14" s="2"/>
-      <c r="FZ14" s="2"/>
-      <c r="GA14" s="2"/>
-      <c r="GB14" s="2"/>
-      <c r="GC14" s="2"/>
-      <c r="GD14" s="2"/>
-      <c r="GE14" s="2"/>
-      <c r="GF14" s="2"/>
-      <c r="GG14" s="2"/>
-      <c r="GH14" s="2"/>
-      <c r="GI14" s="2"/>
-      <c r="GJ14" s="2"/>
-      <c r="GK14" s="2"/>
-      <c r="GL14" s="2"/>
-      <c r="GM14" s="2"/>
-      <c r="GN14" s="2"/>
-      <c r="GO14" s="2"/>
-      <c r="GP14" s="2"/>
-      <c r="GQ14" s="2"/>
-      <c r="GR14" s="2"/>
-      <c r="GS14" s="2"/>
-      <c r="GT14" s="2"/>
-      <c r="GU14" s="2"/>
-      <c r="GV14" s="2"/>
-      <c r="GW14" s="2"/>
-      <c r="GX14" s="2"/>
-      <c r="GY14" s="2"/>
     </row>
     <row r="15" spans="1:207" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>3.5649999999999999</v>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>2780.194</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>6.8259999999999996</v>
+      <c r="F15" s="5">
+        <v>2247.2979999999998</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>2833.9119999999998</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2143.7710000000002</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2498,20 +1484,24 @@
     </row>
     <row r="16" spans="1:207" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>52.661000000000001</v>
+        <v>1261.1880000000001</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>1172.3620000000001</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
-        <v>43.341999999999999</v>
+        <v>1238.7380000000001</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>1001.3150000000001</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2712,20 +1702,40 @@
     </row>
     <row r="17" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:H17" si="0">+C15-C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E17" s="2">
-        <v>29.004000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1519.0059999999999</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>1074.9359999999997</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="2">
-        <v>7.4080000000000004</v>
+        <f>+I15-I16</f>
+        <v>1595.1739999999998</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17" si="1">+J15-J16</f>
+        <v>1142.4560000000001</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2926,39 +1936,23 @@
     </row>
     <row r="18" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:H18" si="6">+C14+C15-C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <f t="shared" si="6"/>
-        <v>-111.33400000000019</v>
+        <v>1353.152</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1197.8489999999999</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2">
-        <f>+I14+I15-I16+I17</f>
-        <v>196.66899999999978</v>
+        <v>1318.3969999999999</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" ref="J18" si="7">+J14+J15-J16+J17</f>
-        <v>0</v>
+        <v>1177.1010000000001</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3160,20 +2154,24 @@
     </row>
     <row r="19" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>-19.597999999999999</v>
+        <v>257.096</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>250.47</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
-        <v>27.56</v>
+        <v>51</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>38.241999999999997</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3374,39 +2372,39 @@
     </row>
     <row r="20" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:H20" si="8">+C18-C19</f>
+        <f t="shared" ref="C20" si="2">+C17-C18-C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D20" si="3">+D17-D18-D19</f>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="8"/>
-        <v>-91.736000000000189</v>
+        <f t="shared" ref="E20:H20" si="4">+E17-E18-E19</f>
+        <v>-91.242000000000189</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-373.38300000000027</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>+I18-I19</f>
-        <v>169.10899999999978</v>
+        <f>+I17-I18-I19</f>
+        <v>225.77699999999982</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20" si="9">+J18-J19</f>
-        <v>0</v>
+        <f t="shared" ref="J20" si="5">+J17-J18-J19</f>
+        <v>-72.886999999999972</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3608,20 +2606,24 @@
     </row>
     <row r="21" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>-49.283999999999999</v>
+        <v>3.5649999999999999</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <v>1.329</v>
+        <v>6.8259999999999996</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3822,39 +2824,23 @@
     </row>
     <row r="22" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:H22" si="10">+C20-C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <f t="shared" si="10"/>
-        <v>-42.45200000000019</v>
+        <v>52.661000000000001</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>39.896000000000001</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2">
-        <f>+I20-I21</f>
-        <v>167.77999999999977</v>
+        <v>43.341999999999999</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22" si="11">+J20-J21</f>
-        <v>0</v>
+        <v>29.091999999999999</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4055,14 +3041,25 @@
       <c r="GY22" s="2"/>
     </row>
     <row r="23" spans="2:207" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2">
+        <v>29.004000000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.5149999999999999</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="2">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-14.631</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -4263,39 +3260,39 @@
     </row>
     <row r="24" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
-      <c r="C24" s="2" t="e">
-        <f t="shared" ref="C24:D24" si="12">+C22/C25</f>
-        <v>#DIV/0!</v>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:H24" si="6">+C20+C21-C22+C23</f>
+        <v>0</v>
       </c>
-      <c r="D24" s="2" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f>+E22/E25</f>
-        <v>-0.10930447522162451</v>
+        <f t="shared" si="6"/>
+        <v>-111.33400000000019</v>
       </c>
-      <c r="F24" s="2" t="e">
-        <f t="shared" ref="F24:J24" si="13">+F22/F25</f>
-        <v>#DIV/0!</v>
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>-411.76400000000029</v>
       </c>
-      <c r="G24" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="G24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
-      <c r="H24" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="H24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="13"/>
-        <v>0.43106947777338089</v>
+        <f>+I20+I21-I22+I23</f>
+        <v>196.66899999999978</v>
       </c>
-      <c r="J24" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="J24" s="2">
+        <f t="shared" ref="J24" si="7">+J20+J21-J22+J23</f>
+        <v>-116.60999999999997</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -4497,20 +3494,24 @@
     </row>
     <row r="25" spans="2:207" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <v>388.38299999999998</v>
+        <v>-19.597999999999999</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>0.36</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
-        <v>389.21800000000002</v>
+        <v>27.56</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>33.656999999999996</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -4710,14 +3711,41 @@
       <c r="GY25" s="2"/>
     </row>
     <row r="26" spans="2:207" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:H26" si="8">+C24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="8"/>
+        <v>-91.736000000000189</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="8"/>
+        <v>-412.12400000000031</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f>+I24-I25</f>
+        <v>169.10899999999978</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26" si="9">+J24-J25</f>
+        <v>-150.26699999999997</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -4917,14 +3945,25 @@
       <c r="GY26" s="2"/>
     </row>
     <row r="27" spans="2:207" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2">
+        <v>-49.283999999999999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6.1840000000000002</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="2">
+        <v>1.329</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.52100000000000002</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -5124,14 +4163,41 @@
       <c r="GY27" s="2"/>
     </row>
     <row r="28" spans="2:207" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:H28" si="10">+C26-C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="10"/>
+        <v>-42.45200000000019</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="10"/>
+        <v>-418.30800000000033</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f>+I26-I27</f>
+        <v>167.77999999999977</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="J28" si="11">+J26-J27</f>
+        <v>-150.78799999999995</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5538,14 +4604,41 @@
       <c r="GY29" s="2"/>
     </row>
     <row r="30" spans="2:207" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="e">
+        <f t="shared" ref="C30:D30" si="12">+C28/C31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="2">
+        <f>+E28/E31</f>
+        <v>-0.10930447522162451</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30:J30" si="13">+F28/F31</f>
+        <v>-1.0765623753406826</v>
+      </c>
+      <c r="G30" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="13"/>
+        <v>0.43106947777338089</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="13"/>
+        <v>-0.38702788721910641</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -5745,14 +4838,25 @@
       <c r="GY30" s="2"/>
     </row>
     <row r="31" spans="2:207" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="2">
+        <v>388.38299999999998</v>
+      </c>
+      <c r="F31" s="2">
+        <v>388.55900000000003</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="I31" s="2">
+        <v>389.21800000000002</v>
+      </c>
+      <c r="J31" s="2">
+        <v>389.60500000000002</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -51077,6 +50181,1248 @@
       <c r="GX249" s="2"/>
       <c r="GY249" s="2"/>
     </row>
+    <row r="250" spans="3:207" x14ac:dyDescent="0.25">
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="2"/>
+      <c r="V250" s="2"/>
+      <c r="W250" s="2"/>
+      <c r="X250" s="2"/>
+      <c r="Y250" s="2"/>
+      <c r="Z250" s="2"/>
+      <c r="AA250" s="2"/>
+      <c r="AB250" s="2"/>
+      <c r="AC250" s="2"/>
+      <c r="AD250" s="2"/>
+      <c r="AE250" s="2"/>
+      <c r="AF250" s="2"/>
+      <c r="AG250" s="2"/>
+      <c r="AH250" s="2"/>
+      <c r="AI250" s="2"/>
+      <c r="AJ250" s="2"/>
+      <c r="AK250" s="2"/>
+      <c r="AL250" s="2"/>
+      <c r="AM250" s="2"/>
+      <c r="AN250" s="2"/>
+      <c r="AO250" s="2"/>
+      <c r="AP250" s="2"/>
+      <c r="AQ250" s="2"/>
+      <c r="AR250" s="2"/>
+      <c r="AS250" s="2"/>
+      <c r="AT250" s="2"/>
+      <c r="AU250" s="2"/>
+      <c r="AV250" s="2"/>
+      <c r="AW250" s="2"/>
+      <c r="AX250" s="2"/>
+      <c r="AY250" s="2"/>
+      <c r="AZ250" s="2"/>
+      <c r="BA250" s="2"/>
+      <c r="BB250" s="2"/>
+      <c r="BC250" s="2"/>
+      <c r="BD250" s="2"/>
+      <c r="BE250" s="2"/>
+      <c r="BF250" s="2"/>
+      <c r="BG250" s="2"/>
+      <c r="BH250" s="2"/>
+      <c r="BI250" s="2"/>
+      <c r="BJ250" s="2"/>
+      <c r="BK250" s="2"/>
+      <c r="BL250" s="2"/>
+      <c r="BM250" s="2"/>
+      <c r="BN250" s="2"/>
+      <c r="BO250" s="2"/>
+      <c r="BP250" s="2"/>
+      <c r="BQ250" s="2"/>
+      <c r="BR250" s="2"/>
+      <c r="BS250" s="2"/>
+      <c r="BT250" s="2"/>
+      <c r="BU250" s="2"/>
+      <c r="BV250" s="2"/>
+      <c r="BW250" s="2"/>
+      <c r="BX250" s="2"/>
+      <c r="BY250" s="2"/>
+      <c r="BZ250" s="2"/>
+      <c r="CA250" s="2"/>
+      <c r="CB250" s="2"/>
+      <c r="CC250" s="2"/>
+      <c r="CD250" s="2"/>
+      <c r="CE250" s="2"/>
+      <c r="CF250" s="2"/>
+      <c r="CG250" s="2"/>
+      <c r="CH250" s="2"/>
+      <c r="CI250" s="2"/>
+      <c r="CJ250" s="2"/>
+      <c r="CK250" s="2"/>
+      <c r="CL250" s="2"/>
+      <c r="CM250" s="2"/>
+      <c r="CN250" s="2"/>
+      <c r="CO250" s="2"/>
+      <c r="CP250" s="2"/>
+      <c r="CQ250" s="2"/>
+      <c r="CR250" s="2"/>
+      <c r="CS250" s="2"/>
+      <c r="CT250" s="2"/>
+      <c r="CU250" s="2"/>
+      <c r="CV250" s="2"/>
+      <c r="CW250" s="2"/>
+      <c r="CX250" s="2"/>
+      <c r="CY250" s="2"/>
+      <c r="CZ250" s="2"/>
+      <c r="DA250" s="2"/>
+      <c r="DB250" s="2"/>
+      <c r="DC250" s="2"/>
+      <c r="DD250" s="2"/>
+      <c r="DE250" s="2"/>
+      <c r="DF250" s="2"/>
+      <c r="DG250" s="2"/>
+      <c r="DH250" s="2"/>
+      <c r="DI250" s="2"/>
+      <c r="DJ250" s="2"/>
+      <c r="DK250" s="2"/>
+      <c r="DL250" s="2"/>
+      <c r="DM250" s="2"/>
+      <c r="DN250" s="2"/>
+      <c r="DO250" s="2"/>
+      <c r="DP250" s="2"/>
+      <c r="DQ250" s="2"/>
+      <c r="DR250" s="2"/>
+      <c r="DS250" s="2"/>
+      <c r="DT250" s="2"/>
+      <c r="DU250" s="2"/>
+      <c r="DV250" s="2"/>
+      <c r="DW250" s="2"/>
+      <c r="DX250" s="2"/>
+      <c r="DY250" s="2"/>
+      <c r="DZ250" s="2"/>
+      <c r="EA250" s="2"/>
+      <c r="EB250" s="2"/>
+      <c r="EC250" s="2"/>
+      <c r="ED250" s="2"/>
+      <c r="EE250" s="2"/>
+      <c r="EF250" s="2"/>
+      <c r="EG250" s="2"/>
+      <c r="EH250" s="2"/>
+      <c r="EI250" s="2"/>
+      <c r="EJ250" s="2"/>
+      <c r="EK250" s="2"/>
+      <c r="EL250" s="2"/>
+      <c r="EM250" s="2"/>
+      <c r="EN250" s="2"/>
+      <c r="EO250" s="2"/>
+      <c r="EP250" s="2"/>
+      <c r="EQ250" s="2"/>
+      <c r="ER250" s="2"/>
+      <c r="ES250" s="2"/>
+      <c r="ET250" s="2"/>
+      <c r="EU250" s="2"/>
+      <c r="EV250" s="2"/>
+      <c r="EW250" s="2"/>
+      <c r="EX250" s="2"/>
+      <c r="EY250" s="2"/>
+      <c r="EZ250" s="2"/>
+      <c r="FA250" s="2"/>
+      <c r="FB250" s="2"/>
+      <c r="FC250" s="2"/>
+      <c r="FD250" s="2"/>
+      <c r="FE250" s="2"/>
+      <c r="FF250" s="2"/>
+      <c r="FG250" s="2"/>
+      <c r="FH250" s="2"/>
+      <c r="FI250" s="2"/>
+      <c r="FJ250" s="2"/>
+      <c r="FK250" s="2"/>
+      <c r="FL250" s="2"/>
+      <c r="FM250" s="2"/>
+      <c r="FN250" s="2"/>
+      <c r="FO250" s="2"/>
+      <c r="FP250" s="2"/>
+      <c r="FQ250" s="2"/>
+      <c r="FR250" s="2"/>
+      <c r="FS250" s="2"/>
+      <c r="FT250" s="2"/>
+      <c r="FU250" s="2"/>
+      <c r="FV250" s="2"/>
+      <c r="FW250" s="2"/>
+      <c r="FX250" s="2"/>
+      <c r="FY250" s="2"/>
+      <c r="FZ250" s="2"/>
+      <c r="GA250" s="2"/>
+      <c r="GB250" s="2"/>
+      <c r="GC250" s="2"/>
+      <c r="GD250" s="2"/>
+      <c r="GE250" s="2"/>
+      <c r="GF250" s="2"/>
+      <c r="GG250" s="2"/>
+      <c r="GH250" s="2"/>
+      <c r="GI250" s="2"/>
+      <c r="GJ250" s="2"/>
+      <c r="GK250" s="2"/>
+      <c r="GL250" s="2"/>
+      <c r="GM250" s="2"/>
+      <c r="GN250" s="2"/>
+      <c r="GO250" s="2"/>
+      <c r="GP250" s="2"/>
+      <c r="GQ250" s="2"/>
+      <c r="GR250" s="2"/>
+      <c r="GS250" s="2"/>
+      <c r="GT250" s="2"/>
+      <c r="GU250" s="2"/>
+      <c r="GV250" s="2"/>
+      <c r="GW250" s="2"/>
+      <c r="GX250" s="2"/>
+      <c r="GY250" s="2"/>
+    </row>
+    <row r="251" spans="3:207" x14ac:dyDescent="0.25">
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="2"/>
+      <c r="V251" s="2"/>
+      <c r="W251" s="2"/>
+      <c r="X251" s="2"/>
+      <c r="Y251" s="2"/>
+      <c r="Z251" s="2"/>
+      <c r="AA251" s="2"/>
+      <c r="AB251" s="2"/>
+      <c r="AC251" s="2"/>
+      <c r="AD251" s="2"/>
+      <c r="AE251" s="2"/>
+      <c r="AF251" s="2"/>
+      <c r="AG251" s="2"/>
+      <c r="AH251" s="2"/>
+      <c r="AI251" s="2"/>
+      <c r="AJ251" s="2"/>
+      <c r="AK251" s="2"/>
+      <c r="AL251" s="2"/>
+      <c r="AM251" s="2"/>
+      <c r="AN251" s="2"/>
+      <c r="AO251" s="2"/>
+      <c r="AP251" s="2"/>
+      <c r="AQ251" s="2"/>
+      <c r="AR251" s="2"/>
+      <c r="AS251" s="2"/>
+      <c r="AT251" s="2"/>
+      <c r="AU251" s="2"/>
+      <c r="AV251" s="2"/>
+      <c r="AW251" s="2"/>
+      <c r="AX251" s="2"/>
+      <c r="AY251" s="2"/>
+      <c r="AZ251" s="2"/>
+      <c r="BA251" s="2"/>
+      <c r="BB251" s="2"/>
+      <c r="BC251" s="2"/>
+      <c r="BD251" s="2"/>
+      <c r="BE251" s="2"/>
+      <c r="BF251" s="2"/>
+      <c r="BG251" s="2"/>
+      <c r="BH251" s="2"/>
+      <c r="BI251" s="2"/>
+      <c r="BJ251" s="2"/>
+      <c r="BK251" s="2"/>
+      <c r="BL251" s="2"/>
+      <c r="BM251" s="2"/>
+      <c r="BN251" s="2"/>
+      <c r="BO251" s="2"/>
+      <c r="BP251" s="2"/>
+      <c r="BQ251" s="2"/>
+      <c r="BR251" s="2"/>
+      <c r="BS251" s="2"/>
+      <c r="BT251" s="2"/>
+      <c r="BU251" s="2"/>
+      <c r="BV251" s="2"/>
+      <c r="BW251" s="2"/>
+      <c r="BX251" s="2"/>
+      <c r="BY251" s="2"/>
+      <c r="BZ251" s="2"/>
+      <c r="CA251" s="2"/>
+      <c r="CB251" s="2"/>
+      <c r="CC251" s="2"/>
+      <c r="CD251" s="2"/>
+      <c r="CE251" s="2"/>
+      <c r="CF251" s="2"/>
+      <c r="CG251" s="2"/>
+      <c r="CH251" s="2"/>
+      <c r="CI251" s="2"/>
+      <c r="CJ251" s="2"/>
+      <c r="CK251" s="2"/>
+      <c r="CL251" s="2"/>
+      <c r="CM251" s="2"/>
+      <c r="CN251" s="2"/>
+      <c r="CO251" s="2"/>
+      <c r="CP251" s="2"/>
+      <c r="CQ251" s="2"/>
+      <c r="CR251" s="2"/>
+      <c r="CS251" s="2"/>
+      <c r="CT251" s="2"/>
+      <c r="CU251" s="2"/>
+      <c r="CV251" s="2"/>
+      <c r="CW251" s="2"/>
+      <c r="CX251" s="2"/>
+      <c r="CY251" s="2"/>
+      <c r="CZ251" s="2"/>
+      <c r="DA251" s="2"/>
+      <c r="DB251" s="2"/>
+      <c r="DC251" s="2"/>
+      <c r="DD251" s="2"/>
+      <c r="DE251" s="2"/>
+      <c r="DF251" s="2"/>
+      <c r="DG251" s="2"/>
+      <c r="DH251" s="2"/>
+      <c r="DI251" s="2"/>
+      <c r="DJ251" s="2"/>
+      <c r="DK251" s="2"/>
+      <c r="DL251" s="2"/>
+      <c r="DM251" s="2"/>
+      <c r="DN251" s="2"/>
+      <c r="DO251" s="2"/>
+      <c r="DP251" s="2"/>
+      <c r="DQ251" s="2"/>
+      <c r="DR251" s="2"/>
+      <c r="DS251" s="2"/>
+      <c r="DT251" s="2"/>
+      <c r="DU251" s="2"/>
+      <c r="DV251" s="2"/>
+      <c r="DW251" s="2"/>
+      <c r="DX251" s="2"/>
+      <c r="DY251" s="2"/>
+      <c r="DZ251" s="2"/>
+      <c r="EA251" s="2"/>
+      <c r="EB251" s="2"/>
+      <c r="EC251" s="2"/>
+      <c r="ED251" s="2"/>
+      <c r="EE251" s="2"/>
+      <c r="EF251" s="2"/>
+      <c r="EG251" s="2"/>
+      <c r="EH251" s="2"/>
+      <c r="EI251" s="2"/>
+      <c r="EJ251" s="2"/>
+      <c r="EK251" s="2"/>
+      <c r="EL251" s="2"/>
+      <c r="EM251" s="2"/>
+      <c r="EN251" s="2"/>
+      <c r="EO251" s="2"/>
+      <c r="EP251" s="2"/>
+      <c r="EQ251" s="2"/>
+      <c r="ER251" s="2"/>
+      <c r="ES251" s="2"/>
+      <c r="ET251" s="2"/>
+      <c r="EU251" s="2"/>
+      <c r="EV251" s="2"/>
+      <c r="EW251" s="2"/>
+      <c r="EX251" s="2"/>
+      <c r="EY251" s="2"/>
+      <c r="EZ251" s="2"/>
+      <c r="FA251" s="2"/>
+      <c r="FB251" s="2"/>
+      <c r="FC251" s="2"/>
+      <c r="FD251" s="2"/>
+      <c r="FE251" s="2"/>
+      <c r="FF251" s="2"/>
+      <c r="FG251" s="2"/>
+      <c r="FH251" s="2"/>
+      <c r="FI251" s="2"/>
+      <c r="FJ251" s="2"/>
+      <c r="FK251" s="2"/>
+      <c r="FL251" s="2"/>
+      <c r="FM251" s="2"/>
+      <c r="FN251" s="2"/>
+      <c r="FO251" s="2"/>
+      <c r="FP251" s="2"/>
+      <c r="FQ251" s="2"/>
+      <c r="FR251" s="2"/>
+      <c r="FS251" s="2"/>
+      <c r="FT251" s="2"/>
+      <c r="FU251" s="2"/>
+      <c r="FV251" s="2"/>
+      <c r="FW251" s="2"/>
+      <c r="FX251" s="2"/>
+      <c r="FY251" s="2"/>
+      <c r="FZ251" s="2"/>
+      <c r="GA251" s="2"/>
+      <c r="GB251" s="2"/>
+      <c r="GC251" s="2"/>
+      <c r="GD251" s="2"/>
+      <c r="GE251" s="2"/>
+      <c r="GF251" s="2"/>
+      <c r="GG251" s="2"/>
+      <c r="GH251" s="2"/>
+      <c r="GI251" s="2"/>
+      <c r="GJ251" s="2"/>
+      <c r="GK251" s="2"/>
+      <c r="GL251" s="2"/>
+      <c r="GM251" s="2"/>
+      <c r="GN251" s="2"/>
+      <c r="GO251" s="2"/>
+      <c r="GP251" s="2"/>
+      <c r="GQ251" s="2"/>
+      <c r="GR251" s="2"/>
+      <c r="GS251" s="2"/>
+      <c r="GT251" s="2"/>
+      <c r="GU251" s="2"/>
+      <c r="GV251" s="2"/>
+      <c r="GW251" s="2"/>
+      <c r="GX251" s="2"/>
+      <c r="GY251" s="2"/>
+    </row>
+    <row r="252" spans="3:207" x14ac:dyDescent="0.25">
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+      <c r="P252" s="2"/>
+      <c r="Q252" s="2"/>
+      <c r="R252" s="2"/>
+      <c r="S252" s="2"/>
+      <c r="T252" s="2"/>
+      <c r="U252" s="2"/>
+      <c r="V252" s="2"/>
+      <c r="W252" s="2"/>
+      <c r="X252" s="2"/>
+      <c r="Y252" s="2"/>
+      <c r="Z252" s="2"/>
+      <c r="AA252" s="2"/>
+      <c r="AB252" s="2"/>
+      <c r="AC252" s="2"/>
+      <c r="AD252" s="2"/>
+      <c r="AE252" s="2"/>
+      <c r="AF252" s="2"/>
+      <c r="AG252" s="2"/>
+      <c r="AH252" s="2"/>
+      <c r="AI252" s="2"/>
+      <c r="AJ252" s="2"/>
+      <c r="AK252" s="2"/>
+      <c r="AL252" s="2"/>
+      <c r="AM252" s="2"/>
+      <c r="AN252" s="2"/>
+      <c r="AO252" s="2"/>
+      <c r="AP252" s="2"/>
+      <c r="AQ252" s="2"/>
+      <c r="AR252" s="2"/>
+      <c r="AS252" s="2"/>
+      <c r="AT252" s="2"/>
+      <c r="AU252" s="2"/>
+      <c r="AV252" s="2"/>
+      <c r="AW252" s="2"/>
+      <c r="AX252" s="2"/>
+      <c r="AY252" s="2"/>
+      <c r="AZ252" s="2"/>
+      <c r="BA252" s="2"/>
+      <c r="BB252" s="2"/>
+      <c r="BC252" s="2"/>
+      <c r="BD252" s="2"/>
+      <c r="BE252" s="2"/>
+      <c r="BF252" s="2"/>
+      <c r="BG252" s="2"/>
+      <c r="BH252" s="2"/>
+      <c r="BI252" s="2"/>
+      <c r="BJ252" s="2"/>
+      <c r="BK252" s="2"/>
+      <c r="BL252" s="2"/>
+      <c r="BM252" s="2"/>
+      <c r="BN252" s="2"/>
+      <c r="BO252" s="2"/>
+      <c r="BP252" s="2"/>
+      <c r="BQ252" s="2"/>
+      <c r="BR252" s="2"/>
+      <c r="BS252" s="2"/>
+      <c r="BT252" s="2"/>
+      <c r="BU252" s="2"/>
+      <c r="BV252" s="2"/>
+      <c r="BW252" s="2"/>
+      <c r="BX252" s="2"/>
+      <c r="BY252" s="2"/>
+      <c r="BZ252" s="2"/>
+      <c r="CA252" s="2"/>
+      <c r="CB252" s="2"/>
+      <c r="CC252" s="2"/>
+      <c r="CD252" s="2"/>
+      <c r="CE252" s="2"/>
+      <c r="CF252" s="2"/>
+      <c r="CG252" s="2"/>
+      <c r="CH252" s="2"/>
+      <c r="CI252" s="2"/>
+      <c r="CJ252" s="2"/>
+      <c r="CK252" s="2"/>
+      <c r="CL252" s="2"/>
+      <c r="CM252" s="2"/>
+      <c r="CN252" s="2"/>
+      <c r="CO252" s="2"/>
+      <c r="CP252" s="2"/>
+      <c r="CQ252" s="2"/>
+      <c r="CR252" s="2"/>
+      <c r="CS252" s="2"/>
+      <c r="CT252" s="2"/>
+      <c r="CU252" s="2"/>
+      <c r="CV252" s="2"/>
+      <c r="CW252" s="2"/>
+      <c r="CX252" s="2"/>
+      <c r="CY252" s="2"/>
+      <c r="CZ252" s="2"/>
+      <c r="DA252" s="2"/>
+      <c r="DB252" s="2"/>
+      <c r="DC252" s="2"/>
+      <c r="DD252" s="2"/>
+      <c r="DE252" s="2"/>
+      <c r="DF252" s="2"/>
+      <c r="DG252" s="2"/>
+      <c r="DH252" s="2"/>
+      <c r="DI252" s="2"/>
+      <c r="DJ252" s="2"/>
+      <c r="DK252" s="2"/>
+      <c r="DL252" s="2"/>
+      <c r="DM252" s="2"/>
+      <c r="DN252" s="2"/>
+      <c r="DO252" s="2"/>
+      <c r="DP252" s="2"/>
+      <c r="DQ252" s="2"/>
+      <c r="DR252" s="2"/>
+      <c r="DS252" s="2"/>
+      <c r="DT252" s="2"/>
+      <c r="DU252" s="2"/>
+      <c r="DV252" s="2"/>
+      <c r="DW252" s="2"/>
+      <c r="DX252" s="2"/>
+      <c r="DY252" s="2"/>
+      <c r="DZ252" s="2"/>
+      <c r="EA252" s="2"/>
+      <c r="EB252" s="2"/>
+      <c r="EC252" s="2"/>
+      <c r="ED252" s="2"/>
+      <c r="EE252" s="2"/>
+      <c r="EF252" s="2"/>
+      <c r="EG252" s="2"/>
+      <c r="EH252" s="2"/>
+      <c r="EI252" s="2"/>
+      <c r="EJ252" s="2"/>
+      <c r="EK252" s="2"/>
+      <c r="EL252" s="2"/>
+      <c r="EM252" s="2"/>
+      <c r="EN252" s="2"/>
+      <c r="EO252" s="2"/>
+      <c r="EP252" s="2"/>
+      <c r="EQ252" s="2"/>
+      <c r="ER252" s="2"/>
+      <c r="ES252" s="2"/>
+      <c r="ET252" s="2"/>
+      <c r="EU252" s="2"/>
+      <c r="EV252" s="2"/>
+      <c r="EW252" s="2"/>
+      <c r="EX252" s="2"/>
+      <c r="EY252" s="2"/>
+      <c r="EZ252" s="2"/>
+      <c r="FA252" s="2"/>
+      <c r="FB252" s="2"/>
+      <c r="FC252" s="2"/>
+      <c r="FD252" s="2"/>
+      <c r="FE252" s="2"/>
+      <c r="FF252" s="2"/>
+      <c r="FG252" s="2"/>
+      <c r="FH252" s="2"/>
+      <c r="FI252" s="2"/>
+      <c r="FJ252" s="2"/>
+      <c r="FK252" s="2"/>
+      <c r="FL252" s="2"/>
+      <c r="FM252" s="2"/>
+      <c r="FN252" s="2"/>
+      <c r="FO252" s="2"/>
+      <c r="FP252" s="2"/>
+      <c r="FQ252" s="2"/>
+      <c r="FR252" s="2"/>
+      <c r="FS252" s="2"/>
+      <c r="FT252" s="2"/>
+      <c r="FU252" s="2"/>
+      <c r="FV252" s="2"/>
+      <c r="FW252" s="2"/>
+      <c r="FX252" s="2"/>
+      <c r="FY252" s="2"/>
+      <c r="FZ252" s="2"/>
+      <c r="GA252" s="2"/>
+      <c r="GB252" s="2"/>
+      <c r="GC252" s="2"/>
+      <c r="GD252" s="2"/>
+      <c r="GE252" s="2"/>
+      <c r="GF252" s="2"/>
+      <c r="GG252" s="2"/>
+      <c r="GH252" s="2"/>
+      <c r="GI252" s="2"/>
+      <c r="GJ252" s="2"/>
+      <c r="GK252" s="2"/>
+      <c r="GL252" s="2"/>
+      <c r="GM252" s="2"/>
+      <c r="GN252" s="2"/>
+      <c r="GO252" s="2"/>
+      <c r="GP252" s="2"/>
+      <c r="GQ252" s="2"/>
+      <c r="GR252" s="2"/>
+      <c r="GS252" s="2"/>
+      <c r="GT252" s="2"/>
+      <c r="GU252" s="2"/>
+      <c r="GV252" s="2"/>
+      <c r="GW252" s="2"/>
+      <c r="GX252" s="2"/>
+      <c r="GY252" s="2"/>
+    </row>
+    <row r="253" spans="3:207" x14ac:dyDescent="0.25">
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" s="2"/>
+      <c r="R253" s="2"/>
+      <c r="S253" s="2"/>
+      <c r="T253" s="2"/>
+      <c r="U253" s="2"/>
+      <c r="V253" s="2"/>
+      <c r="W253" s="2"/>
+      <c r="X253" s="2"/>
+      <c r="Y253" s="2"/>
+      <c r="Z253" s="2"/>
+      <c r="AA253" s="2"/>
+      <c r="AB253" s="2"/>
+      <c r="AC253" s="2"/>
+      <c r="AD253" s="2"/>
+      <c r="AE253" s="2"/>
+      <c r="AF253" s="2"/>
+      <c r="AG253" s="2"/>
+      <c r="AH253" s="2"/>
+      <c r="AI253" s="2"/>
+      <c r="AJ253" s="2"/>
+      <c r="AK253" s="2"/>
+      <c r="AL253" s="2"/>
+      <c r="AM253" s="2"/>
+      <c r="AN253" s="2"/>
+      <c r="AO253" s="2"/>
+      <c r="AP253" s="2"/>
+      <c r="AQ253" s="2"/>
+      <c r="AR253" s="2"/>
+      <c r="AS253" s="2"/>
+      <c r="AT253" s="2"/>
+      <c r="AU253" s="2"/>
+      <c r="AV253" s="2"/>
+      <c r="AW253" s="2"/>
+      <c r="AX253" s="2"/>
+      <c r="AY253" s="2"/>
+      <c r="AZ253" s="2"/>
+      <c r="BA253" s="2"/>
+      <c r="BB253" s="2"/>
+      <c r="BC253" s="2"/>
+      <c r="BD253" s="2"/>
+      <c r="BE253" s="2"/>
+      <c r="BF253" s="2"/>
+      <c r="BG253" s="2"/>
+      <c r="BH253" s="2"/>
+      <c r="BI253" s="2"/>
+      <c r="BJ253" s="2"/>
+      <c r="BK253" s="2"/>
+      <c r="BL253" s="2"/>
+      <c r="BM253" s="2"/>
+      <c r="BN253" s="2"/>
+      <c r="BO253" s="2"/>
+      <c r="BP253" s="2"/>
+      <c r="BQ253" s="2"/>
+      <c r="BR253" s="2"/>
+      <c r="BS253" s="2"/>
+      <c r="BT253" s="2"/>
+      <c r="BU253" s="2"/>
+      <c r="BV253" s="2"/>
+      <c r="BW253" s="2"/>
+      <c r="BX253" s="2"/>
+      <c r="BY253" s="2"/>
+      <c r="BZ253" s="2"/>
+      <c r="CA253" s="2"/>
+      <c r="CB253" s="2"/>
+      <c r="CC253" s="2"/>
+      <c r="CD253" s="2"/>
+      <c r="CE253" s="2"/>
+      <c r="CF253" s="2"/>
+      <c r="CG253" s="2"/>
+      <c r="CH253" s="2"/>
+      <c r="CI253" s="2"/>
+      <c r="CJ253" s="2"/>
+      <c r="CK253" s="2"/>
+      <c r="CL253" s="2"/>
+      <c r="CM253" s="2"/>
+      <c r="CN253" s="2"/>
+      <c r="CO253" s="2"/>
+      <c r="CP253" s="2"/>
+      <c r="CQ253" s="2"/>
+      <c r="CR253" s="2"/>
+      <c r="CS253" s="2"/>
+      <c r="CT253" s="2"/>
+      <c r="CU253" s="2"/>
+      <c r="CV253" s="2"/>
+      <c r="CW253" s="2"/>
+      <c r="CX253" s="2"/>
+      <c r="CY253" s="2"/>
+      <c r="CZ253" s="2"/>
+      <c r="DA253" s="2"/>
+      <c r="DB253" s="2"/>
+      <c r="DC253" s="2"/>
+      <c r="DD253" s="2"/>
+      <c r="DE253" s="2"/>
+      <c r="DF253" s="2"/>
+      <c r="DG253" s="2"/>
+      <c r="DH253" s="2"/>
+      <c r="DI253" s="2"/>
+      <c r="DJ253" s="2"/>
+      <c r="DK253" s="2"/>
+      <c r="DL253" s="2"/>
+      <c r="DM253" s="2"/>
+      <c r="DN253" s="2"/>
+      <c r="DO253" s="2"/>
+      <c r="DP253" s="2"/>
+      <c r="DQ253" s="2"/>
+      <c r="DR253" s="2"/>
+      <c r="DS253" s="2"/>
+      <c r="DT253" s="2"/>
+      <c r="DU253" s="2"/>
+      <c r="DV253" s="2"/>
+      <c r="DW253" s="2"/>
+      <c r="DX253" s="2"/>
+      <c r="DY253" s="2"/>
+      <c r="DZ253" s="2"/>
+      <c r="EA253" s="2"/>
+      <c r="EB253" s="2"/>
+      <c r="EC253" s="2"/>
+      <c r="ED253" s="2"/>
+      <c r="EE253" s="2"/>
+      <c r="EF253" s="2"/>
+      <c r="EG253" s="2"/>
+      <c r="EH253" s="2"/>
+      <c r="EI253" s="2"/>
+      <c r="EJ253" s="2"/>
+      <c r="EK253" s="2"/>
+      <c r="EL253" s="2"/>
+      <c r="EM253" s="2"/>
+      <c r="EN253" s="2"/>
+      <c r="EO253" s="2"/>
+      <c r="EP253" s="2"/>
+      <c r="EQ253" s="2"/>
+      <c r="ER253" s="2"/>
+      <c r="ES253" s="2"/>
+      <c r="ET253" s="2"/>
+      <c r="EU253" s="2"/>
+      <c r="EV253" s="2"/>
+      <c r="EW253" s="2"/>
+      <c r="EX253" s="2"/>
+      <c r="EY253" s="2"/>
+      <c r="EZ253" s="2"/>
+      <c r="FA253" s="2"/>
+      <c r="FB253" s="2"/>
+      <c r="FC253" s="2"/>
+      <c r="FD253" s="2"/>
+      <c r="FE253" s="2"/>
+      <c r="FF253" s="2"/>
+      <c r="FG253" s="2"/>
+      <c r="FH253" s="2"/>
+      <c r="FI253" s="2"/>
+      <c r="FJ253" s="2"/>
+      <c r="FK253" s="2"/>
+      <c r="FL253" s="2"/>
+      <c r="FM253" s="2"/>
+      <c r="FN253" s="2"/>
+      <c r="FO253" s="2"/>
+      <c r="FP253" s="2"/>
+      <c r="FQ253" s="2"/>
+      <c r="FR253" s="2"/>
+      <c r="FS253" s="2"/>
+      <c r="FT253" s="2"/>
+      <c r="FU253" s="2"/>
+      <c r="FV253" s="2"/>
+      <c r="FW253" s="2"/>
+      <c r="FX253" s="2"/>
+      <c r="FY253" s="2"/>
+      <c r="FZ253" s="2"/>
+      <c r="GA253" s="2"/>
+      <c r="GB253" s="2"/>
+      <c r="GC253" s="2"/>
+      <c r="GD253" s="2"/>
+      <c r="GE253" s="2"/>
+      <c r="GF253" s="2"/>
+      <c r="GG253" s="2"/>
+      <c r="GH253" s="2"/>
+      <c r="GI253" s="2"/>
+      <c r="GJ253" s="2"/>
+      <c r="GK253" s="2"/>
+      <c r="GL253" s="2"/>
+      <c r="GM253" s="2"/>
+      <c r="GN253" s="2"/>
+      <c r="GO253" s="2"/>
+      <c r="GP253" s="2"/>
+      <c r="GQ253" s="2"/>
+      <c r="GR253" s="2"/>
+      <c r="GS253" s="2"/>
+      <c r="GT253" s="2"/>
+      <c r="GU253" s="2"/>
+      <c r="GV253" s="2"/>
+      <c r="GW253" s="2"/>
+      <c r="GX253" s="2"/>
+      <c r="GY253" s="2"/>
+    </row>
+    <row r="254" spans="3:207" x14ac:dyDescent="0.25">
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2"/>
+      <c r="V254" s="2"/>
+      <c r="W254" s="2"/>
+      <c r="X254" s="2"/>
+      <c r="Y254" s="2"/>
+      <c r="Z254" s="2"/>
+      <c r="AA254" s="2"/>
+      <c r="AB254" s="2"/>
+      <c r="AC254" s="2"/>
+      <c r="AD254" s="2"/>
+      <c r="AE254" s="2"/>
+      <c r="AF254" s="2"/>
+      <c r="AG254" s="2"/>
+      <c r="AH254" s="2"/>
+      <c r="AI254" s="2"/>
+      <c r="AJ254" s="2"/>
+      <c r="AK254" s="2"/>
+      <c r="AL254" s="2"/>
+      <c r="AM254" s="2"/>
+      <c r="AN254" s="2"/>
+      <c r="AO254" s="2"/>
+      <c r="AP254" s="2"/>
+      <c r="AQ254" s="2"/>
+      <c r="AR254" s="2"/>
+      <c r="AS254" s="2"/>
+      <c r="AT254" s="2"/>
+      <c r="AU254" s="2"/>
+      <c r="AV254" s="2"/>
+      <c r="AW254" s="2"/>
+      <c r="AX254" s="2"/>
+      <c r="AY254" s="2"/>
+      <c r="AZ254" s="2"/>
+      <c r="BA254" s="2"/>
+      <c r="BB254" s="2"/>
+      <c r="BC254" s="2"/>
+      <c r="BD254" s="2"/>
+      <c r="BE254" s="2"/>
+      <c r="BF254" s="2"/>
+      <c r="BG254" s="2"/>
+      <c r="BH254" s="2"/>
+      <c r="BI254" s="2"/>
+      <c r="BJ254" s="2"/>
+      <c r="BK254" s="2"/>
+      <c r="BL254" s="2"/>
+      <c r="BM254" s="2"/>
+      <c r="BN254" s="2"/>
+      <c r="BO254" s="2"/>
+      <c r="BP254" s="2"/>
+      <c r="BQ254" s="2"/>
+      <c r="BR254" s="2"/>
+      <c r="BS254" s="2"/>
+      <c r="BT254" s="2"/>
+      <c r="BU254" s="2"/>
+      <c r="BV254" s="2"/>
+      <c r="BW254" s="2"/>
+      <c r="BX254" s="2"/>
+      <c r="BY254" s="2"/>
+      <c r="BZ254" s="2"/>
+      <c r="CA254" s="2"/>
+      <c r="CB254" s="2"/>
+      <c r="CC254" s="2"/>
+      <c r="CD254" s="2"/>
+      <c r="CE254" s="2"/>
+      <c r="CF254" s="2"/>
+      <c r="CG254" s="2"/>
+      <c r="CH254" s="2"/>
+      <c r="CI254" s="2"/>
+      <c r="CJ254" s="2"/>
+      <c r="CK254" s="2"/>
+      <c r="CL254" s="2"/>
+      <c r="CM254" s="2"/>
+      <c r="CN254" s="2"/>
+      <c r="CO254" s="2"/>
+      <c r="CP254" s="2"/>
+      <c r="CQ254" s="2"/>
+      <c r="CR254" s="2"/>
+      <c r="CS254" s="2"/>
+      <c r="CT254" s="2"/>
+      <c r="CU254" s="2"/>
+      <c r="CV254" s="2"/>
+      <c r="CW254" s="2"/>
+      <c r="CX254" s="2"/>
+      <c r="CY254" s="2"/>
+      <c r="CZ254" s="2"/>
+      <c r="DA254" s="2"/>
+      <c r="DB254" s="2"/>
+      <c r="DC254" s="2"/>
+      <c r="DD254" s="2"/>
+      <c r="DE254" s="2"/>
+      <c r="DF254" s="2"/>
+      <c r="DG254" s="2"/>
+      <c r="DH254" s="2"/>
+      <c r="DI254" s="2"/>
+      <c r="DJ254" s="2"/>
+      <c r="DK254" s="2"/>
+      <c r="DL254" s="2"/>
+      <c r="DM254" s="2"/>
+      <c r="DN254" s="2"/>
+      <c r="DO254" s="2"/>
+      <c r="DP254" s="2"/>
+      <c r="DQ254" s="2"/>
+      <c r="DR254" s="2"/>
+      <c r="DS254" s="2"/>
+      <c r="DT254" s="2"/>
+      <c r="DU254" s="2"/>
+      <c r="DV254" s="2"/>
+      <c r="DW254" s="2"/>
+      <c r="DX254" s="2"/>
+      <c r="DY254" s="2"/>
+      <c r="DZ254" s="2"/>
+      <c r="EA254" s="2"/>
+      <c r="EB254" s="2"/>
+      <c r="EC254" s="2"/>
+      <c r="ED254" s="2"/>
+      <c r="EE254" s="2"/>
+      <c r="EF254" s="2"/>
+      <c r="EG254" s="2"/>
+      <c r="EH254" s="2"/>
+      <c r="EI254" s="2"/>
+      <c r="EJ254" s="2"/>
+      <c r="EK254" s="2"/>
+      <c r="EL254" s="2"/>
+      <c r="EM254" s="2"/>
+      <c r="EN254" s="2"/>
+      <c r="EO254" s="2"/>
+      <c r="EP254" s="2"/>
+      <c r="EQ254" s="2"/>
+      <c r="ER254" s="2"/>
+      <c r="ES254" s="2"/>
+      <c r="ET254" s="2"/>
+      <c r="EU254" s="2"/>
+      <c r="EV254" s="2"/>
+      <c r="EW254" s="2"/>
+      <c r="EX254" s="2"/>
+      <c r="EY254" s="2"/>
+      <c r="EZ254" s="2"/>
+      <c r="FA254" s="2"/>
+      <c r="FB254" s="2"/>
+      <c r="FC254" s="2"/>
+      <c r="FD254" s="2"/>
+      <c r="FE254" s="2"/>
+      <c r="FF254" s="2"/>
+      <c r="FG254" s="2"/>
+      <c r="FH254" s="2"/>
+      <c r="FI254" s="2"/>
+      <c r="FJ254" s="2"/>
+      <c r="FK254" s="2"/>
+      <c r="FL254" s="2"/>
+      <c r="FM254" s="2"/>
+      <c r="FN254" s="2"/>
+      <c r="FO254" s="2"/>
+      <c r="FP254" s="2"/>
+      <c r="FQ254" s="2"/>
+      <c r="FR254" s="2"/>
+      <c r="FS254" s="2"/>
+      <c r="FT254" s="2"/>
+      <c r="FU254" s="2"/>
+      <c r="FV254" s="2"/>
+      <c r="FW254" s="2"/>
+      <c r="FX254" s="2"/>
+      <c r="FY254" s="2"/>
+      <c r="FZ254" s="2"/>
+      <c r="GA254" s="2"/>
+      <c r="GB254" s="2"/>
+      <c r="GC254" s="2"/>
+      <c r="GD254" s="2"/>
+      <c r="GE254" s="2"/>
+      <c r="GF254" s="2"/>
+      <c r="GG254" s="2"/>
+      <c r="GH254" s="2"/>
+      <c r="GI254" s="2"/>
+      <c r="GJ254" s="2"/>
+      <c r="GK254" s="2"/>
+      <c r="GL254" s="2"/>
+      <c r="GM254" s="2"/>
+      <c r="GN254" s="2"/>
+      <c r="GO254" s="2"/>
+      <c r="GP254" s="2"/>
+      <c r="GQ254" s="2"/>
+      <c r="GR254" s="2"/>
+      <c r="GS254" s="2"/>
+      <c r="GT254" s="2"/>
+      <c r="GU254" s="2"/>
+      <c r="GV254" s="2"/>
+      <c r="GW254" s="2"/>
+      <c r="GX254" s="2"/>
+      <c r="GY254" s="2"/>
+    </row>
+    <row r="255" spans="3:207" x14ac:dyDescent="0.25">
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="2"/>
+      <c r="R255" s="2"/>
+      <c r="S255" s="2"/>
+      <c r="T255" s="2"/>
+      <c r="U255" s="2"/>
+      <c r="V255" s="2"/>
+      <c r="W255" s="2"/>
+      <c r="X255" s="2"/>
+      <c r="Y255" s="2"/>
+      <c r="Z255" s="2"/>
+      <c r="AA255" s="2"/>
+      <c r="AB255" s="2"/>
+      <c r="AC255" s="2"/>
+      <c r="AD255" s="2"/>
+      <c r="AE255" s="2"/>
+      <c r="AF255" s="2"/>
+      <c r="AG255" s="2"/>
+      <c r="AH255" s="2"/>
+      <c r="AI255" s="2"/>
+      <c r="AJ255" s="2"/>
+      <c r="AK255" s="2"/>
+      <c r="AL255" s="2"/>
+      <c r="AM255" s="2"/>
+      <c r="AN255" s="2"/>
+      <c r="AO255" s="2"/>
+      <c r="AP255" s="2"/>
+      <c r="AQ255" s="2"/>
+      <c r="AR255" s="2"/>
+      <c r="AS255" s="2"/>
+      <c r="AT255" s="2"/>
+      <c r="AU255" s="2"/>
+      <c r="AV255" s="2"/>
+      <c r="AW255" s="2"/>
+      <c r="AX255" s="2"/>
+      <c r="AY255" s="2"/>
+      <c r="AZ255" s="2"/>
+      <c r="BA255" s="2"/>
+      <c r="BB255" s="2"/>
+      <c r="BC255" s="2"/>
+      <c r="BD255" s="2"/>
+      <c r="BE255" s="2"/>
+      <c r="BF255" s="2"/>
+      <c r="BG255" s="2"/>
+      <c r="BH255" s="2"/>
+      <c r="BI255" s="2"/>
+      <c r="BJ255" s="2"/>
+      <c r="BK255" s="2"/>
+      <c r="BL255" s="2"/>
+      <c r="BM255" s="2"/>
+      <c r="BN255" s="2"/>
+      <c r="BO255" s="2"/>
+      <c r="BP255" s="2"/>
+      <c r="BQ255" s="2"/>
+      <c r="BR255" s="2"/>
+      <c r="BS255" s="2"/>
+      <c r="BT255" s="2"/>
+      <c r="BU255" s="2"/>
+      <c r="BV255" s="2"/>
+      <c r="BW255" s="2"/>
+      <c r="BX255" s="2"/>
+      <c r="BY255" s="2"/>
+      <c r="BZ255" s="2"/>
+      <c r="CA255" s="2"/>
+      <c r="CB255" s="2"/>
+      <c r="CC255" s="2"/>
+      <c r="CD255" s="2"/>
+      <c r="CE255" s="2"/>
+      <c r="CF255" s="2"/>
+      <c r="CG255" s="2"/>
+      <c r="CH255" s="2"/>
+      <c r="CI255" s="2"/>
+      <c r="CJ255" s="2"/>
+      <c r="CK255" s="2"/>
+      <c r="CL255" s="2"/>
+      <c r="CM255" s="2"/>
+      <c r="CN255" s="2"/>
+      <c r="CO255" s="2"/>
+      <c r="CP255" s="2"/>
+      <c r="CQ255" s="2"/>
+      <c r="CR255" s="2"/>
+      <c r="CS255" s="2"/>
+      <c r="CT255" s="2"/>
+      <c r="CU255" s="2"/>
+      <c r="CV255" s="2"/>
+      <c r="CW255" s="2"/>
+      <c r="CX255" s="2"/>
+      <c r="CY255" s="2"/>
+      <c r="CZ255" s="2"/>
+      <c r="DA255" s="2"/>
+      <c r="DB255" s="2"/>
+      <c r="DC255" s="2"/>
+      <c r="DD255" s="2"/>
+      <c r="DE255" s="2"/>
+      <c r="DF255" s="2"/>
+      <c r="DG255" s="2"/>
+      <c r="DH255" s="2"/>
+      <c r="DI255" s="2"/>
+      <c r="DJ255" s="2"/>
+      <c r="DK255" s="2"/>
+      <c r="DL255" s="2"/>
+      <c r="DM255" s="2"/>
+      <c r="DN255" s="2"/>
+      <c r="DO255" s="2"/>
+      <c r="DP255" s="2"/>
+      <c r="DQ255" s="2"/>
+      <c r="DR255" s="2"/>
+      <c r="DS255" s="2"/>
+      <c r="DT255" s="2"/>
+      <c r="DU255" s="2"/>
+      <c r="DV255" s="2"/>
+      <c r="DW255" s="2"/>
+      <c r="DX255" s="2"/>
+      <c r="DY255" s="2"/>
+      <c r="DZ255" s="2"/>
+      <c r="EA255" s="2"/>
+      <c r="EB255" s="2"/>
+      <c r="EC255" s="2"/>
+      <c r="ED255" s="2"/>
+      <c r="EE255" s="2"/>
+      <c r="EF255" s="2"/>
+      <c r="EG255" s="2"/>
+      <c r="EH255" s="2"/>
+      <c r="EI255" s="2"/>
+      <c r="EJ255" s="2"/>
+      <c r="EK255" s="2"/>
+      <c r="EL255" s="2"/>
+      <c r="EM255" s="2"/>
+      <c r="EN255" s="2"/>
+      <c r="EO255" s="2"/>
+      <c r="EP255" s="2"/>
+      <c r="EQ255" s="2"/>
+      <c r="ER255" s="2"/>
+      <c r="ES255" s="2"/>
+      <c r="ET255" s="2"/>
+      <c r="EU255" s="2"/>
+      <c r="EV255" s="2"/>
+      <c r="EW255" s="2"/>
+      <c r="EX255" s="2"/>
+      <c r="EY255" s="2"/>
+      <c r="EZ255" s="2"/>
+      <c r="FA255" s="2"/>
+      <c r="FB255" s="2"/>
+      <c r="FC255" s="2"/>
+      <c r="FD255" s="2"/>
+      <c r="FE255" s="2"/>
+      <c r="FF255" s="2"/>
+      <c r="FG255" s="2"/>
+      <c r="FH255" s="2"/>
+      <c r="FI255" s="2"/>
+      <c r="FJ255" s="2"/>
+      <c r="FK255" s="2"/>
+      <c r="FL255" s="2"/>
+      <c r="FM255" s="2"/>
+      <c r="FN255" s="2"/>
+      <c r="FO255" s="2"/>
+      <c r="FP255" s="2"/>
+      <c r="FQ255" s="2"/>
+      <c r="FR255" s="2"/>
+      <c r="FS255" s="2"/>
+      <c r="FT255" s="2"/>
+      <c r="FU255" s="2"/>
+      <c r="FV255" s="2"/>
+      <c r="FW255" s="2"/>
+      <c r="FX255" s="2"/>
+      <c r="FY255" s="2"/>
+      <c r="FZ255" s="2"/>
+      <c r="GA255" s="2"/>
+      <c r="GB255" s="2"/>
+      <c r="GC255" s="2"/>
+      <c r="GD255" s="2"/>
+      <c r="GE255" s="2"/>
+      <c r="GF255" s="2"/>
+      <c r="GG255" s="2"/>
+      <c r="GH255" s="2"/>
+      <c r="GI255" s="2"/>
+      <c r="GJ255" s="2"/>
+      <c r="GK255" s="2"/>
+      <c r="GL255" s="2"/>
+      <c r="GM255" s="2"/>
+      <c r="GN255" s="2"/>
+      <c r="GO255" s="2"/>
+      <c r="GP255" s="2"/>
+      <c r="GQ255" s="2"/>
+      <c r="GR255" s="2"/>
+      <c r="GS255" s="2"/>
+      <c r="GT255" s="2"/>
+      <c r="GU255" s="2"/>
+      <c r="GV255" s="2"/>
+      <c r="GW255" s="2"/>
+      <c r="GX255" s="2"/>
+      <c r="GY255" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F19B80C1-46AF-4099-8AA5-CF7124DDE498}"/>

--- a/VFC.xlsx
+++ b/VFC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A5EDDC-A181-426E-A53B-923BD76DD145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC3FC5-5C79-4AEC-8294-8FDB4C09801D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{FD9221D3-9194-474F-AA6F-D3A3CA930557}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FD9221D3-9194-474F-AA6F-D3A3CA930557}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>VF Corporation</t>
   </si>
@@ -198,7 +198,22 @@
     <t>Q426</t>
   </si>
   <si>
-    <t>FQ126</t>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -210,13 +225,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -254,6 +275,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,27 +300,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +666,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -649,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>13.17</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -657,9 +696,9 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>390.61650200000003</v>
+        <v>390.72475800000001</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -672,7 +711,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>5144.4193313400001</v>
+        <v>5899.9438458000004</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -683,9 +722,9 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>642.38599999999997</v>
+        <v>419.11500000000001</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -694,10 +733,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>392.915+586.005+3560.99</f>
-        <v>4539.91</v>
+        <f>502.145+3544.181</f>
+        <v>4046.326</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -707,7 +746,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>9041.9433313400004</v>
+        <v>9527.1548457999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -743,10 +782,10 @@
   <dimension ref="A1:GY254"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -814,7 +853,9 @@
       <c r="G3" s="7">
         <v>975.66899999999998</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>1355.8579999999999</v>
+      </c>
       <c r="I3" s="7">
         <v>1506.722</v>
       </c>
@@ -824,7 +865,9 @@
       <c r="K3" s="7">
         <v>937.59799999999996</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7">
+        <v>1343.492</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -916,7 +959,9 @@
       <c r="G4" s="7">
         <v>532.33600000000001</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>1009.5549999999999</v>
+      </c>
       <c r="I4" s="7">
         <v>894.24199999999996</v>
       </c>
@@ -926,7 +971,9 @@
       <c r="K4" s="7">
         <v>551.26300000000003</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>1072.655</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1018,7 +1065,9 @@
       <c r="G5" s="7">
         <v>261.02499999999998</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>392.53500000000003</v>
+      </c>
       <c r="I5" s="7">
         <v>432.94799999999998</v>
       </c>
@@ -1028,7 +1077,9 @@
       <c r="K5" s="7">
         <v>271.80500000000001</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>386.55900000000003</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1118,7 +1169,9 @@
       <c r="G6" s="7">
         <v>524.20000000000005</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>1091.4000000000001</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
         <v>834.5</v>
@@ -1126,7 +1179,9 @@
       <c r="K6" s="7">
         <v>557.4</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <v>1157.0999999999999</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1216,7 +1271,9 @@
       <c r="G7" s="7">
         <v>581.79999999999995</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>667.4</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7">
         <v>492.6</v>
@@ -1224,7 +1281,9 @@
       <c r="K7" s="7">
         <v>498</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>606.9</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1314,7 +1373,9 @@
       <c r="G8" s="7">
         <v>229.4</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>475.3</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7">
         <v>376</v>
@@ -1322,7 +1383,9 @@
       <c r="K8" s="7">
         <v>255.1</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>506.4</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1410,13 +1473,19 @@
         <v>162.4</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7">
         <v>139.30000000000001</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1504,13 +1573,19 @@
         <v>297.89999999999998</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7">
         <v>301.5</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1602,7 +1677,9 @@
       <c r="G11" s="7">
         <v>1013.774</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>1827.796</v>
+      </c>
       <c r="I11" s="7">
         <v>1250.9369999999999</v>
       </c>
@@ -1612,7 +1689,9 @@
       <c r="K11" s="7">
         <v>1024.5060000000001</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>1876.9469999999999</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1704,7 +1783,9 @@
       <c r="G12" s="7">
         <v>740.95500000000004</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>914.93700000000001</v>
+      </c>
       <c r="I12" s="7">
         <v>1565.569</v>
       </c>
@@ -1714,7 +1795,9 @@
       <c r="K12" s="7">
         <v>720.66300000000001</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7">
+        <v>909.86099999999999</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1806,7 +1889,9 @@
       <c r="G13" s="7">
         <v>14.331</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>15.215</v>
+      </c>
       <c r="I13" s="7">
         <v>17.405999999999999</v>
       </c>
@@ -1816,7 +1901,9 @@
       <c r="K13" s="7">
         <v>15.497</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7">
+        <v>15.898</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1908,7 +1995,9 @@
       <c r="G14" s="8">
         <v>1769.06</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <v>2757.9479999999999</v>
+      </c>
       <c r="I14" s="8">
         <v>2833.9119999999998</v>
       </c>
@@ -1918,7 +2007,9 @@
       <c r="K14" s="8">
         <v>1760.6659999999999</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="8">
+        <v>2802.7060000000001</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2130,7 +2221,9 @@
       <c r="G15" s="7">
         <v>863.38199999999995</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>1317.3910000000001</v>
+      </c>
       <c r="I15" s="7">
         <v>1238.7380000000001</v>
       </c>
@@ -2140,7 +2233,9 @@
       <c r="K15" s="7">
         <v>811.66399999999999</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7">
+        <v>1340.2619999999999</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2363,21 +2458,24 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1440.5569999999998</v>
       </c>
       <c r="I16" s="7">
         <f>+I14-I15</f>
         <v>1595.1739999999998</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" ref="J16:K16" si="1">+J14-J15</f>
+        <f t="shared" ref="J16:L16" si="1">+J14-J15</f>
         <v>1142.4560000000001</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="1"/>
         <v>949.00199999999995</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <f t="shared" si="1"/>
+        <v>1462.4440000000002</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2589,7 +2687,9 @@
       <c r="G17" s="7">
         <v>1028.6980000000001</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>1166.654</v>
+      </c>
       <c r="I17" s="7">
         <v>1318.3969999999999</v>
       </c>
@@ -2599,7 +2699,9 @@
       <c r="K17" s="7">
         <v>1035.6110000000001</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7">
+        <v>1149.8240000000001</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2811,7 +2913,9 @@
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
       <c r="I18" s="7">
         <v>51</v>
       </c>
@@ -2821,7 +2925,9 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3044,21 +3150,24 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>273.90299999999979</v>
       </c>
       <c r="I19" s="7">
         <f>+I16-I17-I18</f>
         <v>225.77699999999982</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" ref="J19:K19" si="5">+J16-J17-J18</f>
+        <f t="shared" ref="J19:L19" si="5">+J16-J17-J18</f>
         <v>-72.886999999999972</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
         <v>-86.609000000000151</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7">
+        <f t="shared" si="5"/>
+        <v>312.62000000000012</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3270,7 +3379,9 @@
       <c r="G20" s="7">
         <v>3.395</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>3.6779999999999999</v>
+      </c>
       <c r="I20" s="7">
         <v>6.8259999999999996</v>
       </c>
@@ -3280,7 +3391,9 @@
       <c r="K20" s="7">
         <v>2.5179999999999998</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>3.4079999999999999</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3492,7 +3605,9 @@
       <c r="G21" s="7">
         <v>44.341999999999999</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>46.366</v>
+      </c>
       <c r="I21" s="7">
         <v>43.341999999999999</v>
       </c>
@@ -3502,7 +3617,9 @@
       <c r="K21" s="7">
         <v>43.637999999999998</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7">
+        <v>49.616999999999997</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3714,7 +3831,9 @@
       <c r="G22" s="7">
         <v>-1.486</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>-0.66</v>
+      </c>
       <c r="I22" s="7">
         <v>7.4080000000000004</v>
       </c>
@@ -3724,7 +3843,9 @@
       <c r="K22" s="7">
         <v>1.1359999999999999</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <v>1.87</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3947,21 +4068,24 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>230.55499999999981</v>
       </c>
       <c r="I23" s="7">
         <f>+I19+I20-I21+I22</f>
         <v>196.66899999999978</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" ref="J23:K23" si="7">+J19+J20-J21+J22</f>
+        <f t="shared" ref="J23:L23" si="7">+J19+J20-J21+J22</f>
         <v>-116.60999999999997</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="7"/>
         <v>-126.59300000000016</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <f t="shared" si="7"/>
+        <v>268.28100000000012</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -4173,7 +4297,9 @@
       <c r="G24" s="7">
         <v>-13.426</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>28.045999999999999</v>
+      </c>
       <c r="I24" s="7">
         <v>27.56</v>
       </c>
@@ -4183,7 +4309,9 @@
       <c r="K24" s="7">
         <v>-10.185</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <v>78.516000000000005</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -4406,21 +4534,24 @@
       </c>
       <c r="H25" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>202.50899999999982</v>
       </c>
       <c r="I25" s="7">
         <f>+I23-I24</f>
         <v>169.10899999999978</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" ref="J25:K25" si="9">+J23-J24</f>
+        <f t="shared" ref="J25:L25" si="9">+J23-J24</f>
         <v>-150.26699999999997</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="9"/>
         <v>-116.40800000000016</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7">
+        <f t="shared" si="9"/>
+        <v>189.7650000000001</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -4632,7 +4763,9 @@
       <c r="G26" s="7">
         <v>106.85899999999999</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <v>150.33099999999999</v>
+      </c>
       <c r="I26" s="7">
         <v>1.329</v>
       </c>
@@ -4642,7 +4775,9 @@
       <c r="K26" s="7">
         <v>0</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -4865,21 +5000,24 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>52.177999999999827</v>
       </c>
       <c r="I27" s="7">
         <f>+I25-I26</f>
         <v>167.77999999999977</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" ref="J27:K27" si="11">+J25-J26</f>
+        <f t="shared" ref="J27:L27" si="11">+J25-J26</f>
         <v>-150.78799999999995</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="11"/>
         <v>-116.40800000000016</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="7">
+        <f t="shared" si="11"/>
+        <v>189.7650000000001</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -5300,16 +5438,16 @@
         <v>-0.10930447522162451</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ref="F29:K29" si="13">+F27/F30</f>
+        <f t="shared" ref="F29:L29" si="13">+F27/F30</f>
         <v>-1.0765623753406826</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="13"/>
         <v>-0.66596011225983387</v>
       </c>
-      <c r="H29" s="9" t="e">
+      <c r="H29" s="9">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.13411850587594162</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="13"/>
@@ -5323,7 +5461,10 @@
         <f t="shared" si="13"/>
         <v>-0.2984636842860956</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="9">
+        <f t="shared" si="13"/>
+        <v>0.48576979787430141</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -5535,7 +5676,9 @@
       <c r="G30" s="7">
         <v>388.74099999999999</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>389.04399999999998</v>
+      </c>
       <c r="I30" s="7">
         <v>389.21800000000002</v>
       </c>
@@ -5545,7 +5688,9 @@
       <c r="K30" s="7">
         <v>390.024</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="7">
+        <v>390.64800000000002</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -5950,24 +6095,45 @@
       <c r="GY31" s="3"/>
     </row>
     <row r="32" spans="2:207" x14ac:dyDescent="0.2">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="13" t="e">
+        <f t="shared" ref="G32:K32" si="14">+G14/C14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="13" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="14"/>
+        <v>1.9321673235752623E-2</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="14"/>
+        <v>-4.6067321734811983E-2</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="14"/>
+        <v>-4.74489276791068E-3</v>
+      </c>
+      <c r="L32" s="13">
+        <f>+L14/H14-1</f>
+        <v>1.6228732376390109E-2</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -6156,17 +6322,50 @@
       <c r="GX32" s="3"/>
       <c r="GY32" s="3"/>
     </row>
-    <row r="33" spans="3:207" x14ac:dyDescent="0.2">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+    <row r="33" spans="2:207" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="14" t="e">
+        <f t="shared" ref="C33" si="15">+C16/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="14" t="e">
+        <f t="shared" ref="D33:L33" si="16">+D16/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.54636690820856382</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.47832374700640495</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.51195437124800747</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.52232928249553645</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.56288762671529669</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.53291886120299237</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.53900171866782232</v>
+      </c>
+      <c r="L33" s="14">
+        <f>+L16/L14</f>
+        <v>0.52179714889824336</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -6363,17 +6562,50 @@
       <c r="GX33" s="3"/>
       <c r="GY33" s="3"/>
     </row>
-    <row r="34" spans="3:207" x14ac:dyDescent="0.2">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+    <row r="34" spans="2:207" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="14" t="e">
+        <f t="shared" ref="C34" si="17">+C19/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="14" t="e">
+        <f t="shared" ref="D34:L34" si="18">+D19/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="18"/>
+        <v>-3.2818573092381391E-2</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="18"/>
+        <v>-0.16614752471634839</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="18"/>
+        <v>-6.9539755576407861E-2</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="18"/>
+        <v>9.9314055232368345E-2</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="18"/>
+        <v>7.9669728629541012E-2</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="18"/>
+        <v>-3.3999433708171239E-2</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="18"/>
+        <v>-4.9191044752383561E-2</v>
+      </c>
+      <c r="L34" s="14">
+        <f>+L19/L14</f>
+        <v>0.11154220242865291</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -6570,17 +6802,50 @@
       <c r="GX34" s="3"/>
       <c r="GY34" s="3"/>
     </row>
-    <row r="35" spans="3:207" x14ac:dyDescent="0.2">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+    <row r="35" spans="2:207" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="14" t="e">
+        <f t="shared" ref="C35" si="19">+C24/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="14" t="e">
+        <f t="shared" ref="D35:L35" si="20">+D24/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17602888605457423</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="20"/>
+        <v>-8.7428721306379313E-4</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="20"/>
+        <v>8.1146911811813591E-2</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.12164559432673341</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.1401339306143827</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="20"/>
+        <v>-0.28862876254180608</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="20"/>
+        <v>8.0454685488139055E-2</v>
+      </c>
+      <c r="L35" s="14">
+        <f>+L24/L23</f>
+        <v>0.29266328961052018</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -6777,7 +7042,7 @@
       <c r="GX35" s="3"/>
       <c r="GY35" s="3"/>
     </row>
-    <row r="36" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -6984,7 +7249,7 @@
       <c r="GX36" s="3"/>
       <c r="GY36" s="3"/>
     </row>
-    <row r="37" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -7191,7 +7456,7 @@
       <c r="GX37" s="3"/>
       <c r="GY37" s="3"/>
     </row>
-    <row r="38" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -7398,7 +7663,7 @@
       <c r="GX38" s="3"/>
       <c r="GY38" s="3"/>
     </row>
-    <row r="39" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -7605,7 +7870,7 @@
       <c r="GX39" s="3"/>
       <c r="GY39" s="3"/>
     </row>
-    <row r="40" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -7812,7 +8077,7 @@
       <c r="GX40" s="3"/>
       <c r="GY40" s="3"/>
     </row>
-    <row r="41" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -8019,7 +8284,7 @@
       <c r="GX41" s="3"/>
       <c r="GY41" s="3"/>
     </row>
-    <row r="42" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -8226,7 +8491,7 @@
       <c r="GX42" s="3"/>
       <c r="GY42" s="3"/>
     </row>
-    <row r="43" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -8433,7 +8698,7 @@
       <c r="GX43" s="3"/>
       <c r="GY43" s="3"/>
     </row>
-    <row r="44" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -8640,7 +8905,7 @@
       <c r="GX44" s="3"/>
       <c r="GY44" s="3"/>
     </row>
-    <row r="45" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -8847,7 +9112,7 @@
       <c r="GX45" s="3"/>
       <c r="GY45" s="3"/>
     </row>
-    <row r="46" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -9054,7 +9319,7 @@
       <c r="GX46" s="3"/>
       <c r="GY46" s="3"/>
     </row>
-    <row r="47" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -9261,7 +9526,7 @@
       <c r="GX47" s="3"/>
       <c r="GY47" s="3"/>
     </row>
-    <row r="48" spans="3:207" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:207" x14ac:dyDescent="0.2">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>

--- a/VFC.xlsx
+++ b/VFC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC3FC5-5C79-4AEC-8294-8FDB4C09801D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6633A9-6B36-4FF6-88F0-C4F635A9C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FD9221D3-9194-474F-AA6F-D3A3CA930557}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FD9221D3-9194-474F-AA6F-D3A3CA930557}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>VF Corporation</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Q426</t>
   </si>
   <si>
-    <t>FQ226</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>FQ326</t>
+  </si>
 </sst>
 </file>
 
@@ -225,13 +225,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -302,31 +308,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -665,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406E3357-E065-4428-904F-B44A426A31A2}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -688,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>15.1</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -696,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>390.72475800000001</v>
+        <v>391.26334300000002</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>53</v>
+      <c r="I3" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -711,7 +720,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>5899.9438458000004</v>
+        <v>7942.6458629000008</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -722,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>419.11500000000001</v>
+        <v>1466.4690000000001</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>53</v>
+      <c r="I5" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,11 +742,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>502.145+3544.181</f>
-        <v>4046.326</v>
+        <f>10.522+588.196+3556.932</f>
+        <v>4155.6499999999996</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>53</v>
+      <c r="I6" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -746,7 +755,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>9527.1548457999997</v>
+        <v>10631.826862900001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -781,11 +790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6FD6D1-E9FA-4061-9239-71EF4FDE7FAB}">
   <dimension ref="A1:GY254"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33:C35"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,7 +877,9 @@
       <c r="L3" s="7">
         <v>1343.492</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7">
+        <v>1538.6579999999999</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -974,7 +985,9 @@
       <c r="L4" s="7">
         <v>1072.655</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7">
+        <v>928.74</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -1080,7 +1093,9 @@
       <c r="L5" s="7">
         <v>386.55900000000003</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>408.40300000000002</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1182,7 +1197,9 @@
       <c r="L6" s="7">
         <v>1157.0999999999999</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7">
+        <v>1356.3</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1284,7 +1301,9 @@
       <c r="L7" s="7">
         <v>606.9</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7">
+        <v>557.6</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1386,7 +1405,9 @@
       <c r="L8" s="7">
         <v>506.4</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7">
+        <v>469.7</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1473,20 +1494,22 @@
         <v>162.4</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="11" t="s">
-        <v>54</v>
+      <c r="H9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7">
         <v>139.30000000000001</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>54</v>
+      <c r="K9" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>54</v>
+      <c r="L9" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1573,20 +1596,22 @@
         <v>297.89999999999998</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="11" t="s">
-        <v>54</v>
+      <c r="H10" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7">
         <v>301.5</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>54</v>
+      <c r="K10" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>54</v>
+      <c r="L10" s="10" t="s">
+        <v>53</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <v>392.2</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1692,7 +1717,9 @@
       <c r="L11" s="7">
         <v>1876.9469999999999</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7">
+        <v>1237.443</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1798,7 +1825,9 @@
       <c r="L12" s="7">
         <v>909.86099999999999</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7">
+        <v>1626.002</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1904,7 +1933,9 @@
       <c r="L13" s="7">
         <v>15.898</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7">
+        <v>12.356</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -2010,7 +2041,9 @@
       <c r="L14" s="8">
         <v>2802.7060000000001</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8">
+        <v>2875.8009999999999</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -2236,7 +2269,9 @@
       <c r="L15" s="7">
         <v>1340.2619999999999</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>1247.46</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -2465,7 +2500,7 @@
         <v>1595.1739999999998</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" ref="J16:L16" si="1">+J14-J15</f>
+        <f t="shared" ref="J16:M16" si="1">+J14-J15</f>
         <v>1142.4560000000001</v>
       </c>
       <c r="K16" s="7">
@@ -2476,7 +2511,10 @@
         <f t="shared" si="1"/>
         <v>1462.4440000000002</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7">
+        <f t="shared" si="1"/>
+        <v>1628.3409999999999</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -2702,7 +2740,9 @@
       <c r="L17" s="7">
         <v>1149.8240000000001</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7">
+        <v>1308.5709999999999</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -2928,7 +2968,9 @@
       <c r="L18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>30.716000000000001</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3157,7 +3199,7 @@
         <v>225.77699999999982</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" ref="J19:L19" si="5">+J16-J17-J18</f>
+        <f t="shared" ref="J19:M19" si="5">+J16-J17-J18</f>
         <v>-72.886999999999972</v>
       </c>
       <c r="K19" s="7">
@@ -3168,7 +3210,10 @@
         <f t="shared" si="5"/>
         <v>312.62000000000012</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <f t="shared" si="5"/>
+        <v>289.05399999999997</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -3394,7 +3439,9 @@
       <c r="L20" s="7">
         <v>3.4079999999999999</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7">
+        <v>5.1360000000000001</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3620,7 +3667,9 @@
       <c r="L21" s="7">
         <v>49.616999999999997</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="7">
+        <v>39.747</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -3846,7 +3895,9 @@
       <c r="L22" s="7">
         <v>1.87</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7">
+        <v>108.416</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -4075,7 +4126,7 @@
         <v>196.66899999999978</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" ref="J23:L23" si="7">+J19+J20-J21+J22</f>
+        <f t="shared" ref="J23:M23" si="7">+J19+J20-J21+J22</f>
         <v>-116.60999999999997</v>
       </c>
       <c r="K23" s="7">
@@ -4086,7 +4137,10 @@
         <f t="shared" si="7"/>
         <v>268.28100000000012</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="7">
+        <f t="shared" si="7"/>
+        <v>362.85899999999998</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -4312,7 +4366,9 @@
       <c r="L24" s="7">
         <v>78.516000000000005</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <v>62.014000000000003</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -4541,7 +4597,7 @@
         <v>169.10899999999978</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" ref="J25:L25" si="9">+J23-J24</f>
+        <f t="shared" ref="J25:M25" si="9">+J23-J24</f>
         <v>-150.26699999999997</v>
       </c>
       <c r="K25" s="7">
@@ -4552,7 +4608,10 @@
         <f t="shared" si="9"/>
         <v>189.7650000000001</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="7">
+        <f t="shared" si="9"/>
+        <v>300.84499999999997</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -4778,7 +4837,9 @@
       <c r="L26" s="7">
         <v>0</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -5007,7 +5068,7 @@
         <v>167.77999999999977</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" ref="J27:L27" si="11">+J25-J26</f>
+        <f t="shared" ref="J27:M27" si="11">+J25-J26</f>
         <v>-150.78799999999995</v>
       </c>
       <c r="K27" s="7">
@@ -5018,7 +5079,10 @@
         <f t="shared" si="11"/>
         <v>189.7650000000001</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="7">
+        <f t="shared" si="11"/>
+        <v>300.84499999999997</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -5438,7 +5502,7 @@
         <v>-0.10930447522162451</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ref="F29:L29" si="13">+F27/F30</f>
+        <f t="shared" ref="F29:M29" si="13">+F27/F30</f>
         <v>-1.0765623753406826</v>
       </c>
       <c r="G29" s="9">
@@ -5465,7 +5529,10 @@
         <f t="shared" si="13"/>
         <v>0.48576979787430141</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="9">
+        <f t="shared" si="13"/>
+        <v>0.7695918550068428</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -5691,7 +5758,9 @@
       <c r="L30" s="7">
         <v>390.64800000000002</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7">
+        <v>390.91500000000002</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -6096,37 +6165,40 @@
     </row>
     <row r="32" spans="2:207" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="13" t="e">
+      <c r="G32" s="12" t="e">
         <f t="shared" ref="G32:K32" si="14">+G14/C14-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="13" t="e">
+      <c r="H32" s="12" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <f t="shared" si="14"/>
         <v>1.9321673235752623E-2</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <f t="shared" si="14"/>
         <v>-4.6067321734811983E-2</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <f t="shared" si="14"/>
         <v>-4.74489276791068E-3</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="12">
         <f>+L14/H14-1</f>
         <v>1.6228732376390109E-2</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="12">
+        <f>+M14/I14-1</f>
+        <v>1.4781334071064967E-2</v>
+      </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -6323,50 +6395,53 @@
       <c r="GY32" s="3"/>
     </row>
     <row r="33" spans="2:207" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
-        <v>56</v>
+      <c r="B33" s="11" t="s">
+        <v>55</v>
       </c>
-      <c r="C33" s="14" t="e">
+      <c r="C33" s="13" t="e">
         <f t="shared" ref="C33" si="15">+C16/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="14" t="e">
-        <f t="shared" ref="D33:L33" si="16">+D16/D14</f>
+      <c r="D33" s="13" t="e">
+        <f t="shared" ref="D33:K33" si="16">+D16/D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <f t="shared" si="16"/>
         <v>0.54636690820856382</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <f t="shared" si="16"/>
         <v>0.47832374700640495</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <f t="shared" si="16"/>
         <v>0.51195437124800747</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <f t="shared" si="16"/>
         <v>0.52232928249553645</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <f t="shared" si="16"/>
         <v>0.56288762671529669</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <f t="shared" si="16"/>
         <v>0.53291886120299237</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" si="16"/>
         <v>0.53900171866782232</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <f>+L16/L14</f>
         <v>0.52179714889824336</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="13">
+        <f>+M16/M14</f>
+        <v>0.56622172396490578</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -6563,50 +6638,53 @@
       <c r="GY33" s="3"/>
     </row>
     <row r="34" spans="2:207" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
-        <v>57</v>
+      <c r="B34" s="11" t="s">
+        <v>56</v>
       </c>
-      <c r="C34" s="14" t="e">
+      <c r="C34" s="13" t="e">
         <f t="shared" ref="C34" si="17">+C19/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="14" t="e">
-        <f t="shared" ref="D34:L34" si="18">+D19/D14</f>
+      <c r="D34" s="13" t="e">
+        <f t="shared" ref="D34:K34" si="18">+D19/D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <f t="shared" si="18"/>
         <v>-3.2818573092381391E-2</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <f t="shared" si="18"/>
         <v>-0.16614752471634839</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <f t="shared" si="18"/>
         <v>-6.9539755576407861E-2</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <f t="shared" si="18"/>
         <v>9.9314055232368345E-2</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <f t="shared" si="18"/>
         <v>7.9669728629541012E-2</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <f t="shared" si="18"/>
         <v>-3.3999433708171239E-2</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <f t="shared" si="18"/>
         <v>-4.9191044752383561E-2</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <f>+L19/L14</f>
         <v>0.11154220242865291</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="13">
+        <f>+M19/M14</f>
+        <v>0.10051251807757212</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -6803,50 +6881,53 @@
       <c r="GY34" s="3"/>
     </row>
     <row r="35" spans="2:207" x14ac:dyDescent="0.2">
-      <c r="B35" s="12" t="s">
-        <v>58</v>
+      <c r="B35" s="11" t="s">
+        <v>57</v>
       </c>
-      <c r="C35" s="14" t="e">
+      <c r="C35" s="13" t="e">
         <f t="shared" ref="C35" si="19">+C24/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="14" t="e">
-        <f t="shared" ref="D35:L35" si="20">+D24/D23</f>
+      <c r="D35" s="13" t="e">
+        <f t="shared" ref="D35:K35" si="20">+D24/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <f t="shared" si="20"/>
         <v>0.17602888605457423</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <f t="shared" si="20"/>
         <v>-8.7428721306379313E-4</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <f t="shared" si="20"/>
         <v>8.1146911811813591E-2</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <f t="shared" si="20"/>
         <v>0.12164559432673341</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <f t="shared" si="20"/>
         <v>0.1401339306143827</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <f t="shared" si="20"/>
         <v>-0.28862876254180608</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <f t="shared" si="20"/>
         <v>8.0454685488139055E-2</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <f>+L24/L23</f>
         <v>0.29266328961052018</v>
       </c>
-      <c r="M35" s="7"/>
+      <c r="M35" s="13">
+        <f>+M24/M23</f>
+        <v>0.17090384970470626</v>
+      </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
